--- a/заказы/статистика филиалы/2024/02,24/15,02,24 КИ/дв 15,02,24 млрсч ки.xlsx
+++ b/заказы/статистика филиалы/2024/02,24/15,02,24 КИ/дв 15,02,24 млрсч ки.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\15,02,24 КИ филиалы ПОКОМ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\02,24\15,02,24 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE68548-F8A5-49F4-8940-B8BEE6CAC8EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B23C8A-EE8A-4262-8EC8-1AE3658A636F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,10 +406,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="165" formatCode="0.00_ ;[Red]\-0.00\ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,6 +446,28 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -518,7 +541,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -532,6 +555,10 @@
     <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Arial10px" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -838,8 +865,8 @@
   <dimension ref="A1:AX499"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
+      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,7 +878,7 @@
     <col min="8" max="8" width="5" customWidth="1"/>
     <col min="9" max="9" width="0.5703125" customWidth="1"/>
     <col min="10" max="17" width="7.28515625" customWidth="1"/>
-    <col min="18" max="18" width="21.85546875" customWidth="1"/>
+    <col min="18" max="18" width="21.85546875" style="16" customWidth="1"/>
     <col min="19" max="20" width="4.85546875" customWidth="1"/>
     <col min="21" max="26" width="6.7109375" customWidth="1"/>
     <col min="27" max="27" width="22.5703125" customWidth="1"/>
@@ -876,7 +903,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
+      <c r="R1" s="14"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -928,7 +955,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+      <c r="R2" s="14"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -1014,7 +1041,7 @@
       <c r="Q3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="13" t="s">
         <v>16</v>
       </c>
       <c r="S3" s="2" t="s">
@@ -1094,7 +1121,7 @@
         <v>122</v>
       </c>
       <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
+      <c r="R4" s="14"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1" t="s">
@@ -1188,7 +1215,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R5" s="1"/>
+      <c r="R5" s="14"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="4">
@@ -1288,7 +1315,7 @@
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="1"/>
+      <c r="R6" s="14"/>
       <c r="S6" s="1">
         <f>(F6+N6+P6)/O6</f>
         <v>30.850178511802326</v>
@@ -1391,11 +1418,11 @@
         <v>84.117199999999997</v>
       </c>
       <c r="P7" s="5">
-        <f t="shared" ref="P7:P18" si="5">13*O7-N7-F7</f>
+        <f t="shared" ref="P7:P14" si="5">13*O7-N7-F7</f>
         <v>261.0995999999999</v>
       </c>
       <c r="Q7" s="5"/>
-      <c r="R7" s="1"/>
+      <c r="R7" s="14"/>
       <c r="S7" s="1">
         <f t="shared" ref="S7:S70" si="6">(F7+N7+P7)/O7</f>
         <v>13</v>
@@ -1502,7 +1529,7 @@
         <v>306.45040000000006</v>
       </c>
       <c r="Q8" s="5"/>
-      <c r="R8" s="1"/>
+      <c r="R8" s="14"/>
       <c r="S8" s="1">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -1607,7 +1634,7 @@
         <v>83.082999999999998</v>
       </c>
       <c r="Q9" s="5"/>
-      <c r="R9" s="1"/>
+      <c r="R9" s="14"/>
       <c r="S9" s="1">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -1712,7 +1739,7 @@
         <v>109.80000000000001</v>
       </c>
       <c r="Q10" s="5"/>
-      <c r="R10" s="1"/>
+      <c r="R10" s="14"/>
       <c r="S10" s="1">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -1817,7 +1844,7 @@
         <v>29.800000000000011</v>
       </c>
       <c r="Q11" s="5"/>
-      <c r="R11" s="1"/>
+      <c r="R11" s="14"/>
       <c r="S11" s="1">
         <f t="shared" si="6"/>
         <v>13.000000000000002</v>
@@ -1917,7 +1944,7 @@
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
-      <c r="R12" s="1"/>
+      <c r="R12" s="14"/>
       <c r="S12" s="1">
         <f t="shared" si="6"/>
         <v>35</v>
@@ -2022,7 +2049,7 @@
         <v>78.799999999999983</v>
       </c>
       <c r="Q13" s="5"/>
-      <c r="R13" s="1"/>
+      <c r="R13" s="14"/>
       <c r="S13" s="1">
         <f t="shared" si="6"/>
         <v>12.999999999999998</v>
@@ -2127,7 +2154,7 @@
         <v>49.199999999999989</v>
       </c>
       <c r="Q14" s="5"/>
-      <c r="R14" s="1"/>
+      <c r="R14" s="14"/>
       <c r="S14" s="1">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -2229,7 +2256,10 @@
       </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
-      <c r="R15" s="1"/>
+      <c r="R15" s="15">
+        <f>O15/U15-1</f>
+        <v>-0.24096385542168686</v>
+      </c>
       <c r="S15" s="1">
         <f t="shared" si="6"/>
         <v>13.095238095238095</v>
@@ -2331,7 +2361,10 @@
       </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
-      <c r="R16" s="1"/>
+      <c r="R16" s="15">
+        <f>O16/U16-1</f>
+        <v>-8.333333333333337E-2</v>
+      </c>
       <c r="S16" s="1">
         <f t="shared" si="6"/>
         <v>13.961038961038961</v>
@@ -2438,7 +2471,7 @@
         <v>290.90960000000001</v>
       </c>
       <c r="Q17" s="5"/>
-      <c r="R17" s="1"/>
+      <c r="R17" s="14"/>
       <c r="S17" s="1">
         <f t="shared" si="6"/>
         <v>13.999999999999998</v>
@@ -2545,7 +2578,7 @@
         <v>870.06739999999945</v>
       </c>
       <c r="Q18" s="5"/>
-      <c r="R18" s="1"/>
+      <c r="R18" s="14"/>
       <c r="S18" s="1">
         <f t="shared" si="6"/>
         <v>13.500000000000002</v>
@@ -2639,7 +2672,7 @@
       </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
-      <c r="R19" s="1"/>
+      <c r="R19" s="14"/>
       <c r="S19" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2744,11 +2777,11 @@
         <v>68.295599999999993</v>
       </c>
       <c r="P20" s="5">
-        <f t="shared" ref="P20:P26" si="9">13*O20-N20-F20</f>
+        <f t="shared" ref="P20:P23" si="9">13*O20-N20-F20</f>
         <v>87.159200000000169</v>
       </c>
       <c r="Q20" s="5"/>
-      <c r="R20" s="1"/>
+      <c r="R20" s="14"/>
       <c r="S20" s="1">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -2855,7 +2888,7 @@
         <v>1206.5024799999974</v>
       </c>
       <c r="Q21" s="5"/>
-      <c r="R21" s="1"/>
+      <c r="R21" s="14"/>
       <c r="S21" s="1">
         <f t="shared" si="6"/>
         <v>13.5</v>
@@ -2962,7 +2995,7 @@
         <v>33.041200000000003</v>
       </c>
       <c r="Q22" s="5"/>
-      <c r="R22" s="1"/>
+      <c r="R22" s="14"/>
       <c r="S22" s="1">
         <f t="shared" si="6"/>
         <v>12.999999999999998</v>
@@ -3069,7 +3102,7 @@
         <v>127.0920000000001</v>
       </c>
       <c r="Q23" s="5"/>
-      <c r="R23" s="1"/>
+      <c r="R23" s="14"/>
       <c r="S23" s="1">
         <f t="shared" si="6"/>
         <v>12.999999999999998</v>
@@ -3176,7 +3209,7 @@
         <v>1168.6811999999982</v>
       </c>
       <c r="Q24" s="5"/>
-      <c r="R24" s="1"/>
+      <c r="R24" s="14"/>
       <c r="S24" s="1">
         <f t="shared" si="6"/>
         <v>13.499999999999998</v>
@@ -3283,7 +3316,7 @@
         <v>636.4312000000009</v>
       </c>
       <c r="Q25" s="5"/>
-      <c r="R25" s="1"/>
+      <c r="R25" s="14"/>
       <c r="S25" s="1">
         <f t="shared" si="6"/>
         <v>13.5</v>
@@ -3390,7 +3423,7 @@
         <v>229.7879999999999</v>
       </c>
       <c r="Q26" s="5"/>
-      <c r="R26" s="1"/>
+      <c r="R26" s="14"/>
       <c r="S26" s="1">
         <f t="shared" si="6"/>
         <v>14</v>
@@ -3488,7 +3521,7 @@
       </c>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
-      <c r="R27" s="1"/>
+      <c r="R27" s="14"/>
       <c r="S27" s="1" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -3595,7 +3628,7 @@
         <v>132.48000000000008</v>
       </c>
       <c r="Q28" s="5"/>
-      <c r="R28" s="1"/>
+      <c r="R28" s="14"/>
       <c r="S28" s="1">
         <f t="shared" si="6"/>
         <v>12.999999999999998</v>
@@ -3702,7 +3735,10 @@
         <v>120.3612</v>
       </c>
       <c r="Q29" s="5"/>
-      <c r="R29" s="1"/>
+      <c r="R29" s="15">
+        <f>O29/U29-1</f>
+        <v>8.7146798591950514E-3</v>
+      </c>
       <c r="S29" s="1">
         <f t="shared" si="6"/>
         <v>13.000000000000002</v>
@@ -3802,7 +3838,10 @@
       </c>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
-      <c r="R30" s="1"/>
+      <c r="R30" s="15">
+        <f>O30/U30-1</f>
+        <v>0.20183191386790944</v>
+      </c>
       <c r="S30" s="1">
         <f t="shared" si="6"/>
         <v>15.249699157641396</v>
@@ -3911,7 +3950,10 @@
         <v>173.28020000000026</v>
       </c>
       <c r="Q31" s="5"/>
-      <c r="R31" s="1"/>
+      <c r="R31" s="15">
+        <f t="shared" ref="R31:R33" si="12">O31/U31-1</f>
+        <v>-3.2204484926800614E-2</v>
+      </c>
       <c r="S31" s="1">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -4018,7 +4060,10 @@
         <v>229.72540000000009</v>
       </c>
       <c r="Q32" s="5"/>
-      <c r="R32" s="1"/>
+      <c r="R32" s="15">
+        <f t="shared" si="12"/>
+        <v>-7.2050946992194831E-3</v>
+      </c>
       <c r="S32" s="1">
         <f t="shared" si="6"/>
         <v>12.999999999999998</v>
@@ -4120,7 +4165,10 @@
       </c>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
-      <c r="R33" s="1"/>
+      <c r="R33" s="15">
+        <f t="shared" si="12"/>
+        <v>8.2034398848851664E-2</v>
+      </c>
       <c r="S33" s="1">
         <f t="shared" si="6"/>
         <v>14.638784064166659</v>
@@ -4214,7 +4262,7 @@
       </c>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
-      <c r="R34" s="1"/>
+      <c r="R34" s="14"/>
       <c r="S34" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4319,11 +4367,11 @@
         <v>143.98580000000001</v>
       </c>
       <c r="P35" s="5">
-        <f t="shared" ref="P35:P41" si="12">13*O35-N35-F35</f>
+        <f t="shared" ref="P35:P41" si="13">13*O35-N35-F35</f>
         <v>446.92540000000065</v>
       </c>
       <c r="Q35" s="5"/>
-      <c r="R35" s="1"/>
+      <c r="R35" s="14"/>
       <c r="S35" s="1">
         <f t="shared" si="6"/>
         <v>12.999999999999998</v>
@@ -4428,11 +4476,11 @@
         <v>45.053400000000011</v>
       </c>
       <c r="P36" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>215.81900000000036</v>
       </c>
       <c r="Q36" s="5"/>
-      <c r="R36" s="1"/>
+      <c r="R36" s="14"/>
       <c r="S36" s="1">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -4517,7 +4565,7 @@
         <v>86.2</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" ref="K37:K68" si="13">E37-J37</f>
+        <f t="shared" ref="K37:K68" si="14">E37-J37</f>
         <v>5.1559999999999917</v>
       </c>
       <c r="L37" s="1">
@@ -4532,7 +4580,10 @@
       </c>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
-      <c r="R37" s="1"/>
+      <c r="R37" s="15">
+        <f t="shared" ref="R37:R39" si="15">O37/U37-1</f>
+        <v>2.4503482073768401E-2</v>
+      </c>
       <c r="S37" s="1">
         <f t="shared" si="6"/>
         <v>16.559941328429439</v>
@@ -4619,7 +4670,7 @@
         <v>130.768</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.1670000000000016</v>
       </c>
       <c r="L38" s="1">
@@ -4637,11 +4688,14 @@
         <v>19.113400000000002</v>
       </c>
       <c r="P38" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>41.744200000000014</v>
       </c>
       <c r="Q38" s="5"/>
-      <c r="R38" s="1"/>
+      <c r="R38" s="15">
+        <f t="shared" si="15"/>
+        <v>-8.6837704839711316E-2</v>
+      </c>
       <c r="S38" s="1">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -4726,7 +4780,7 @@
         <v>973.01</v>
       </c>
       <c r="K39" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.80999999999994543</v>
       </c>
       <c r="L39" s="1">
@@ -4744,11 +4798,14 @@
         <v>73.938000000000017</v>
       </c>
       <c r="P39" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>191.37060000000019</v>
       </c>
       <c r="Q39" s="5"/>
-      <c r="R39" s="1"/>
+      <c r="R39" s="15">
+        <f t="shared" si="15"/>
+        <v>-3.6203943406408423E-2</v>
+      </c>
       <c r="S39" s="1">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -4833,7 +4890,7 @@
         <v>488.61700000000002</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>11.20599999999996</v>
       </c>
       <c r="L40" s="1">
@@ -4851,11 +4908,11 @@
         <v>58.961199999999998</v>
       </c>
       <c r="P40" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>179.49620000000004</v>
       </c>
       <c r="Q40" s="5"/>
-      <c r="R40" s="1"/>
+      <c r="R40" s="14"/>
       <c r="S40" s="1">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -4940,7 +4997,7 @@
         <v>415.351</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>14.971000000000004</v>
       </c>
       <c r="L41" s="1">
@@ -4958,11 +5015,11 @@
         <v>27.292600000000004</v>
       </c>
       <c r="P41" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>129.57020000000003</v>
       </c>
       <c r="Q41" s="5"/>
-      <c r="R41" s="1"/>
+      <c r="R41" s="14"/>
       <c r="S41" s="1">
         <f t="shared" si="6"/>
         <v>12.999999999999998</v>
@@ -5043,7 +5100,7 @@
         <v>25.57</v>
       </c>
       <c r="K42" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L42" s="1">
@@ -5060,7 +5117,7 @@
       </c>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
-      <c r="R42" s="1"/>
+      <c r="R42" s="14"/>
       <c r="S42" s="1" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -5145,7 +5202,7 @@
         <v>132.07300000000001</v>
       </c>
       <c r="K43" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-2.8940000000000055</v>
       </c>
       <c r="L43" s="1">
@@ -5162,7 +5219,10 @@
       </c>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
-      <c r="R43" s="1"/>
+      <c r="R43" s="15">
+        <f>O43/U43-1</f>
+        <v>0.19718088038428205</v>
+      </c>
       <c r="S43" s="1">
         <f t="shared" si="6"/>
         <v>12.005689666513186</v>
@@ -5247,7 +5307,7 @@
         <v>441</v>
       </c>
       <c r="K44" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
       <c r="L44" s="1">
@@ -5263,11 +5323,11 @@
         <v>88</v>
       </c>
       <c r="P44" s="5">
-        <f t="shared" ref="P44" si="14">13*O44-N44-F44</f>
+        <f t="shared" ref="P44" si="16">13*O44-N44-F44</f>
         <v>311</v>
       </c>
       <c r="Q44" s="5"/>
-      <c r="R44" s="1"/>
+      <c r="R44" s="14"/>
       <c r="S44" s="1">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -5348,7 +5408,7 @@
         <v>161.44300000000001</v>
       </c>
       <c r="K45" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L45" s="1">
@@ -5365,7 +5425,7 @@
       </c>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
-      <c r="R45" s="1"/>
+      <c r="R45" s="14"/>
       <c r="S45" s="1" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -5450,7 +5510,7 @@
         <v>404.63299999999998</v>
       </c>
       <c r="K46" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.2180000000000177</v>
       </c>
       <c r="L46" s="1">
@@ -5468,11 +5528,11 @@
         <v>40.903599999999997</v>
       </c>
       <c r="P46" s="5">
-        <f t="shared" ref="P46:P59" si="15">13*O46-N46-F46</f>
+        <f t="shared" ref="P46:P59" si="17">13*O46-N46-F46</f>
         <v>135.51400000000001</v>
       </c>
       <c r="Q46" s="5"/>
-      <c r="R46" s="1"/>
+      <c r="R46" s="14"/>
       <c r="S46" s="1">
         <f t="shared" si="6"/>
         <v>13.000000000000002</v>
@@ -5557,7 +5617,7 @@
         <v>507</v>
       </c>
       <c r="K47" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-29</v>
       </c>
       <c r="L47" s="1">
@@ -5573,11 +5633,11 @@
         <v>47.6</v>
       </c>
       <c r="P47" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>92.800000000000068</v>
       </c>
       <c r="Q47" s="5"/>
-      <c r="R47" s="1"/>
+      <c r="R47" s="14"/>
       <c r="S47" s="1">
         <f t="shared" si="6"/>
         <v>13.000000000000002</v>
@@ -5662,7 +5722,7 @@
         <v>739</v>
       </c>
       <c r="K48" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>172</v>
       </c>
       <c r="L48" s="1">
@@ -5680,11 +5740,11 @@
         <v>149.80000000000001</v>
       </c>
       <c r="P48" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>444.80000000000018</v>
       </c>
       <c r="Q48" s="5"/>
-      <c r="R48" s="1"/>
+      <c r="R48" s="14"/>
       <c r="S48" s="1">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -5769,7 +5829,7 @@
         <v>968</v>
       </c>
       <c r="K49" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="L49" s="1">
@@ -5787,11 +5847,14 @@
         <v>148.80000000000001</v>
       </c>
       <c r="P49" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>380.80000000000018</v>
       </c>
       <c r="Q49" s="5"/>
-      <c r="R49" s="1"/>
+      <c r="R49" s="15">
+        <f>O49/U49-1</f>
+        <v>-1.846965699208436E-2</v>
+      </c>
       <c r="S49" s="1">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -5876,7 +5939,7 @@
         <v>36</v>
       </c>
       <c r="K50" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.7539999999999978</v>
       </c>
       <c r="L50" s="1">
@@ -5890,11 +5953,11 @@
         <v>8.3507999999999996</v>
       </c>
       <c r="P50" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>28.192399999999992</v>
       </c>
       <c r="Q50" s="5"/>
-      <c r="R50" s="1"/>
+      <c r="R50" s="14"/>
       <c r="S50" s="1">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -5979,7 +6042,7 @@
         <v>93.95</v>
       </c>
       <c r="K51" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.5459999999999923</v>
       </c>
       <c r="L51" s="1">
@@ -5996,7 +6059,10 @@
       </c>
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
-      <c r="R51" s="1"/>
+      <c r="R51" s="15">
+        <f>O51/U51-1</f>
+        <v>-0.20356565545598648</v>
+      </c>
       <c r="S51" s="1">
         <f t="shared" si="6"/>
         <v>13.214491211476316</v>
@@ -6081,7 +6147,7 @@
         <v>36.799999999999997</v>
       </c>
       <c r="K52" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.8190000000000026</v>
       </c>
       <c r="L52" s="1">
@@ -6096,7 +6162,10 @@
       </c>
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
-      <c r="R52" s="1"/>
+      <c r="R52" s="15">
+        <f>O52/U52-1</f>
+        <v>0.11612123210507508</v>
+      </c>
       <c r="S52" s="1">
         <f t="shared" si="6"/>
         <v>12.703537753268176</v>
@@ -6181,7 +6250,7 @@
         <v>116.13</v>
       </c>
       <c r="K53" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.1380000000000052</v>
       </c>
       <c r="L53" s="1">
@@ -6200,7 +6269,7 @@
       </c>
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
-      <c r="R53" s="1"/>
+      <c r="R53" s="14"/>
       <c r="S53" s="1">
         <f t="shared" si="6"/>
         <v>12.226795344876527</v>
@@ -6285,7 +6354,7 @@
         <v>255.70099999999999</v>
       </c>
       <c r="K54" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1.6819999999999879</v>
       </c>
       <c r="L54" s="1">
@@ -6301,11 +6370,14 @@
         <v>20.323599999999999</v>
       </c>
       <c r="P54" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>58.725799999999992</v>
       </c>
       <c r="Q54" s="5"/>
-      <c r="R54" s="1"/>
+      <c r="R54" s="15">
+        <f>O54/U54-1</f>
+        <v>-6.2586790275577231E-3</v>
+      </c>
       <c r="S54" s="1">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -6392,7 +6464,7 @@
         <v>308.18900000000002</v>
       </c>
       <c r="K55" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-4.063000000000045</v>
       </c>
       <c r="L55" s="1">
@@ -6410,11 +6482,11 @@
         <v>19.887399999999996</v>
       </c>
       <c r="P55" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>62.868800000000022</v>
       </c>
       <c r="Q55" s="5"/>
-      <c r="R55" s="1"/>
+      <c r="R55" s="14"/>
       <c r="S55" s="1">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -6499,7 +6571,7 @@
         <v>3464.9630000000002</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>46.308999999999742</v>
       </c>
       <c r="L56" s="1">
@@ -6517,11 +6589,11 @@
         <v>97.441799999999972</v>
       </c>
       <c r="P56" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>155.47980000000018</v>
       </c>
       <c r="Q56" s="5"/>
-      <c r="R56" s="1"/>
+      <c r="R56" s="14"/>
       <c r="S56" s="1">
         <f t="shared" si="6"/>
         <v>12.999999999999998</v>
@@ -6608,7 +6680,7 @@
         <v>717</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-6</v>
       </c>
       <c r="L57" s="1">
@@ -6626,11 +6698,11 @@
         <v>94.2</v>
       </c>
       <c r="P57" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>277.40000000000009</v>
       </c>
       <c r="Q57" s="5"/>
-      <c r="R57" s="1"/>
+      <c r="R57" s="14"/>
       <c r="S57" s="1">
         <f t="shared" si="6"/>
         <v>13.000000000000002</v>
@@ -6715,7 +6787,7 @@
         <v>105.2</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.7530000000000001</v>
       </c>
       <c r="L58" s="1">
@@ -6729,11 +6801,11 @@
         <v>22.1906</v>
       </c>
       <c r="P58" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>35.319800000000015</v>
       </c>
       <c r="Q58" s="5"/>
-      <c r="R58" s="1"/>
+      <c r="R58" s="14"/>
       <c r="S58" s="1">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -6818,7 +6890,7 @@
         <v>556.20100000000002</v>
       </c>
       <c r="K59" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>54.044999999999959</v>
       </c>
       <c r="L59" s="1">
@@ -6836,11 +6908,11 @@
         <v>69.789000000000001</v>
       </c>
       <c r="P59" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>177.26300000000015</v>
       </c>
       <c r="Q59" s="5"/>
-      <c r="R59" s="1"/>
+      <c r="R59" s="14"/>
       <c r="S59" s="1">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -6925,7 +6997,7 @@
         <v>124</v>
       </c>
       <c r="K60" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-6</v>
       </c>
       <c r="L60" s="1">
@@ -6942,7 +7014,10 @@
       </c>
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
-      <c r="R60" s="1"/>
+      <c r="R60" s="15">
+        <f>O60/U60-1</f>
+        <v>-0.17171717171717182</v>
+      </c>
       <c r="S60" s="1">
         <f t="shared" si="6"/>
         <v>17.134146341463417</v>
@@ -7021,7 +7096,7 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L61" s="1">
@@ -7036,7 +7111,7 @@
       </c>
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
-      <c r="R61" s="1"/>
+      <c r="R61" s="14"/>
       <c r="S61" s="1" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -7123,7 +7198,7 @@
         <v>606</v>
       </c>
       <c r="K62" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-11</v>
       </c>
       <c r="L62" s="1">
@@ -7145,7 +7220,7 @@
         <v>170.40000000000009</v>
       </c>
       <c r="Q62" s="5"/>
-      <c r="R62" s="1"/>
+      <c r="R62" s="14"/>
       <c r="S62" s="1">
         <f t="shared" si="6"/>
         <v>13.000000000000002</v>
@@ -7226,7 +7301,7 @@
         <v>51.466000000000001</v>
       </c>
       <c r="K63" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L63" s="1">
@@ -7243,7 +7318,7 @@
       </c>
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
-      <c r="R63" s="1"/>
+      <c r="R63" s="14"/>
       <c r="S63" s="1" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
@@ -7328,7 +7403,7 @@
         <v>148.69999999999999</v>
       </c>
       <c r="K64" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>15.16500000000002</v>
       </c>
       <c r="L64" s="1">
@@ -7344,11 +7419,14 @@
         <v>32.773000000000003</v>
       </c>
       <c r="P64" s="5">
-        <f t="shared" ref="P64:P72" si="16">13*O64-N64-F64</f>
+        <f t="shared" ref="P64:P72" si="18">13*O64-N64-F64</f>
         <v>64.074800000000039</v>
       </c>
       <c r="Q64" s="5"/>
-      <c r="R64" s="1"/>
+      <c r="R64" s="15">
+        <f>O64/U64-1</f>
+        <v>-7.0960024038870362E-2</v>
+      </c>
       <c r="S64" s="1">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -7433,7 +7511,7 @@
         <v>107.3</v>
       </c>
       <c r="K65" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>15.918000000000006</v>
       </c>
       <c r="L65" s="1">
@@ -7449,11 +7527,11 @@
         <v>24.643599999999999</v>
       </c>
       <c r="P65" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>20.02600000000001</v>
       </c>
       <c r="Q65" s="5"/>
-      <c r="R65" s="1"/>
+      <c r="R65" s="14"/>
       <c r="S65" s="1">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -7536,7 +7614,7 @@
         <v>26.3</v>
       </c>
       <c r="K66" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.477999999999998</v>
       </c>
       <c r="L66" s="1">
@@ -7553,7 +7631,7 @@
       </c>
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
-      <c r="R66" s="1"/>
+      <c r="R66" s="14"/>
       <c r="S66" s="1">
         <f t="shared" si="6"/>
         <v>12.027451525470847</v>
@@ -7638,7 +7716,7 @@
         <v>930</v>
       </c>
       <c r="K67" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="L67" s="1">
@@ -7660,7 +7738,10 @@
         <v>467.16000000000031</v>
       </c>
       <c r="Q67" s="5"/>
-      <c r="R67" s="1"/>
+      <c r="R67" s="15">
+        <f>O67/U67-1</f>
+        <v>4.3010752688172227E-2</v>
+      </c>
       <c r="S67" s="1">
         <f t="shared" si="6"/>
         <v>13.4</v>
@@ -7745,7 +7826,7 @@
         <v>583</v>
       </c>
       <c r="K68" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="L68" s="1">
@@ -7763,11 +7844,14 @@
         <v>71.2</v>
       </c>
       <c r="P68" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>226.60000000000002</v>
       </c>
       <c r="Q68" s="5"/>
-      <c r="R68" s="1"/>
+      <c r="R68" s="15">
+        <f>O68/U68-1</f>
+        <v>1.7142857142857126E-2</v>
+      </c>
       <c r="S68" s="1">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -7852,7 +7936,7 @@
         <v>48.8</v>
       </c>
       <c r="K69" s="1">
-        <f t="shared" ref="K69:K84" si="17">E69-J69</f>
+        <f t="shared" ref="K69:K84" si="19">E69-J69</f>
         <v>3.0640000000000001</v>
       </c>
       <c r="L69" s="1">
@@ -7866,11 +7950,11 @@
         <v>10.3728</v>
       </c>
       <c r="P69" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10.761399999999995</v>
       </c>
       <c r="Q69" s="5"/>
-      <c r="R69" s="1"/>
+      <c r="R69" s="14"/>
       <c r="S69" s="1">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -7955,7 +8039,7 @@
         <v>563</v>
       </c>
       <c r="K70" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="L70" s="1">
@@ -7973,11 +8057,11 @@
         <v>72.8</v>
       </c>
       <c r="P70" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>157.80000000000007</v>
       </c>
       <c r="Q70" s="5"/>
-      <c r="R70" s="1"/>
+      <c r="R70" s="14"/>
       <c r="S70" s="1">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -8062,11 +8146,11 @@
         <v>225.3</v>
       </c>
       <c r="K71" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6.6730000000000018</v>
       </c>
       <c r="L71" s="1">
-        <f t="shared" ref="L71:L84" si="18">E71-M71</f>
+        <f t="shared" ref="L71:L84" si="20">E71-M71</f>
         <v>76.273000000000025</v>
       </c>
       <c r="M71" s="1">
@@ -8076,21 +8160,21 @@
         <v>70.710600000000042</v>
       </c>
       <c r="O71" s="1">
-        <f t="shared" ref="O71:O84" si="19">L71/5</f>
+        <f t="shared" ref="O71:O84" si="21">L71/5</f>
         <v>15.254600000000005</v>
       </c>
       <c r="P71" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>25.348200000000034</v>
       </c>
       <c r="Q71" s="5"/>
-      <c r="R71" s="1"/>
+      <c r="R71" s="14"/>
       <c r="S71" s="1">
-        <f t="shared" ref="S71:S84" si="20">(F71+N71+P71)/O71</f>
+        <f t="shared" ref="S71:S84" si="22">(F71+N71+P71)/O71</f>
         <v>12.999999999999998</v>
       </c>
       <c r="T71" s="1">
-        <f t="shared" ref="T71:T84" si="21">(F71+N71)/O71</f>
+        <f t="shared" ref="T71:T84" si="23">(F71+N71)/O71</f>
         <v>11.338324177625108</v>
       </c>
       <c r="U71" s="1">
@@ -8113,7 +8197,7 @@
       </c>
       <c r="AA71" s="1"/>
       <c r="AB71" s="1">
-        <f t="shared" ref="AB71:AB84" si="22">P71*G71</f>
+        <f t="shared" ref="AB71:AB84" si="24">P71*G71</f>
         <v>25.348200000000034</v>
       </c>
       <c r="AC71" s="1"/>
@@ -8169,11 +8253,11 @@
         <v>185.69300000000001</v>
       </c>
       <c r="K72" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>8.3199999999999932</v>
       </c>
       <c r="L72" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>67.320000000000007</v>
       </c>
       <c r="M72" s="1">
@@ -8183,21 +8267,24 @@
         <v>25.999199999999998</v>
       </c>
       <c r="O72" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>13.464000000000002</v>
       </c>
       <c r="P72" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>23.804800000000043</v>
       </c>
       <c r="Q72" s="5"/>
-      <c r="R72" s="1"/>
+      <c r="R72" s="15">
+        <f>O72/U72-1</f>
+        <v>-5.6296960861276113E-2</v>
+      </c>
       <c r="S72" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>13</v>
       </c>
       <c r="T72" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>11.231966726084369</v>
       </c>
       <c r="U72" s="1">
@@ -8220,7 +8307,7 @@
       </c>
       <c r="AA72" s="1"/>
       <c r="AB72" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>23.804800000000043</v>
       </c>
       <c r="AC72" s="1"/>
@@ -8272,11 +8359,11 @@
         <v>43.408000000000001</v>
       </c>
       <c r="K73" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L73" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M73" s="1">
@@ -8284,18 +8371,18 @@
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
-      <c r="R73" s="1"/>
+      <c r="R73" s="14"/>
       <c r="S73" s="1" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T73" s="1" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U73" s="1">
@@ -8308,7 +8395,7 @@
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
       <c r="AB73" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AC73" s="1"/>
@@ -8360,11 +8447,11 @@
         <v>154.184</v>
       </c>
       <c r="K74" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L74" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M74" s="1">
@@ -8372,18 +8459,18 @@
       </c>
       <c r="N74" s="1"/>
       <c r="O74" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P74" s="5"/>
       <c r="Q74" s="5"/>
-      <c r="R74" s="1"/>
+      <c r="R74" s="14"/>
       <c r="S74" s="1" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T74" s="1" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U74" s="1">
@@ -8406,7 +8493,7 @@
       </c>
       <c r="AA74" s="1"/>
       <c r="AB74" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AC74" s="1"/>
@@ -8456,28 +8543,28 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.48</v>
       </c>
       <c r="L75" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.48</v>
       </c>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.29599999999999999</v>
       </c>
       <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
-      <c r="R75" s="1"/>
+      <c r="R75" s="14"/>
       <c r="S75" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="T75" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U75" s="1">
@@ -8490,7 +8577,7 @@
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
       <c r="AB75" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AC75" s="1"/>
@@ -8542,11 +8629,11 @@
         <v>121.80200000000001</v>
       </c>
       <c r="K76" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L76" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M76" s="1">
@@ -8554,18 +8641,18 @@
       </c>
       <c r="N76" s="1"/>
       <c r="O76" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P76" s="5"/>
       <c r="Q76" s="5"/>
-      <c r="R76" s="1"/>
+      <c r="R76" s="14"/>
       <c r="S76" s="1" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T76" s="1" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U76" s="1">
@@ -8588,7 +8675,7 @@
       </c>
       <c r="AA76" s="1"/>
       <c r="AB76" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AC76" s="1"/>
@@ -8640,11 +8727,11 @@
         <v>48</v>
       </c>
       <c r="K77" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L77" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M77" s="1">
@@ -8652,18 +8739,18 @@
       </c>
       <c r="N77" s="1"/>
       <c r="O77" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P77" s="5"/>
       <c r="Q77" s="5"/>
-      <c r="R77" s="1"/>
+      <c r="R77" s="14"/>
       <c r="S77" s="1" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T77" s="1" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U77" s="1">
@@ -8686,7 +8773,7 @@
       </c>
       <c r="AA77" s="1"/>
       <c r="AB77" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AC77" s="1"/>
@@ -8744,11 +8831,11 @@
         <v>152</v>
       </c>
       <c r="K78" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>23</v>
       </c>
       <c r="L78" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>79</v>
       </c>
       <c r="M78" s="1">
@@ -8756,7 +8843,7 @@
       </c>
       <c r="N78" s="1"/>
       <c r="O78" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>15.8</v>
       </c>
       <c r="P78" s="5">
@@ -8764,13 +8851,13 @@
         <v>32.400000000000006</v>
       </c>
       <c r="Q78" s="5"/>
-      <c r="R78" s="1"/>
+      <c r="R78" s="14"/>
       <c r="S78" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>13</v>
       </c>
       <c r="T78" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>10.949367088607595</v>
       </c>
       <c r="U78" s="1">
@@ -8795,7 +8882,7 @@
         <v>112</v>
       </c>
       <c r="AB78" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>11.340000000000002</v>
       </c>
       <c r="AC78" s="1"/>
@@ -8847,11 +8934,11 @@
         <v>185.07900000000001</v>
       </c>
       <c r="K79" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L79" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M79" s="1">
@@ -8859,18 +8946,18 @@
       </c>
       <c r="N79" s="1"/>
       <c r="O79" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P79" s="5"/>
       <c r="Q79" s="5"/>
-      <c r="R79" s="1"/>
+      <c r="R79" s="14"/>
       <c r="S79" s="1" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T79" s="1" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U79" s="1">
@@ -8893,7 +8980,7 @@
       </c>
       <c r="AA79" s="1"/>
       <c r="AB79" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AC79" s="1"/>
@@ -8945,11 +9032,11 @@
         <v>51.744999999999997</v>
       </c>
       <c r="K80" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L80" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M80" s="1">
@@ -8957,18 +9044,18 @@
       </c>
       <c r="N80" s="1"/>
       <c r="O80" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P80" s="5"/>
       <c r="Q80" s="5"/>
-      <c r="R80" s="1"/>
+      <c r="R80" s="14"/>
       <c r="S80" s="1" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T80" s="1" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U80" s="1">
@@ -8981,7 +9068,7 @@
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
       <c r="AB80" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AC80" s="1"/>
@@ -9033,11 +9120,11 @@
         <v>24</v>
       </c>
       <c r="K81" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L81" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M81" s="1">
@@ -9045,18 +9132,18 @@
       </c>
       <c r="N81" s="1"/>
       <c r="O81" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P81" s="5"/>
       <c r="Q81" s="5"/>
-      <c r="R81" s="1"/>
+      <c r="R81" s="14"/>
       <c r="S81" s="1" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T81" s="1" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U81" s="1">
@@ -9079,7 +9166,7 @@
       </c>
       <c r="AA81" s="1"/>
       <c r="AB81" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AC81" s="1"/>
@@ -9131,11 +9218,11 @@
         <v>246</v>
       </c>
       <c r="K82" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L82" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="M82" s="1">
@@ -9143,18 +9230,18 @@
       </c>
       <c r="N82" s="1"/>
       <c r="O82" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.2</v>
       </c>
       <c r="P82" s="5"/>
       <c r="Q82" s="5"/>
-      <c r="R82" s="1"/>
+      <c r="R82" s="14"/>
       <c r="S82" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="T82" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U82" s="1">
@@ -9177,7 +9264,7 @@
       </c>
       <c r="AA82" s="1"/>
       <c r="AB82" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AC82" s="1"/>
@@ -9233,28 +9320,28 @@
         <v>45</v>
       </c>
       <c r="K83" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-12</v>
       </c>
       <c r="L83" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>33</v>
       </c>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>6.6</v>
       </c>
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
-      <c r="R83" s="1"/>
+      <c r="R83" s="14"/>
       <c r="S83" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2.4242424242424243</v>
       </c>
       <c r="T83" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2.4242424242424243</v>
       </c>
       <c r="U83" s="1">
@@ -9279,7 +9366,7 @@
         <v>118</v>
       </c>
       <c r="AB83" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AC83" s="1"/>
@@ -9333,28 +9420,28 @@
         <v>7.15</v>
       </c>
       <c r="K84" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.1720000000000006</v>
       </c>
       <c r="L84" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>6.9779999999999998</v>
       </c>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.3956</v>
       </c>
       <c r="P84" s="5"/>
       <c r="Q84" s="5"/>
-      <c r="R84" s="1"/>
+      <c r="R84" s="14"/>
       <c r="S84" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>25.825451418744628</v>
       </c>
       <c r="T84" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>25.825451418744628</v>
       </c>
       <c r="U84" s="1">
@@ -9379,7 +9466,7 @@
         <v>120</v>
       </c>
       <c r="AB84" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AC84" s="1"/>
@@ -9423,7 +9510,7 @@
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
-      <c r="R85" s="1"/>
+      <c r="R85" s="14"/>
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
@@ -9475,7 +9562,7 @@
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
-      <c r="R86" s="1"/>
+      <c r="R86" s="14"/>
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
@@ -9527,7 +9614,7 @@
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
-      <c r="R87" s="1"/>
+      <c r="R87" s="14"/>
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
@@ -9579,7 +9666,7 @@
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
-      <c r="R88" s="1"/>
+      <c r="R88" s="14"/>
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
@@ -9631,7 +9718,7 @@
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
-      <c r="R89" s="1"/>
+      <c r="R89" s="14"/>
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
@@ -9683,7 +9770,7 @@
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
-      <c r="R90" s="1"/>
+      <c r="R90" s="14"/>
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
@@ -9735,7 +9822,7 @@
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
-      <c r="R91" s="1"/>
+      <c r="R91" s="14"/>
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
@@ -9787,7 +9874,7 @@
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
-      <c r="R92" s="1"/>
+      <c r="R92" s="14"/>
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
@@ -9839,7 +9926,7 @@
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
-      <c r="R93" s="1"/>
+      <c r="R93" s="14"/>
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
@@ -9891,7 +9978,7 @@
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
-      <c r="R94" s="1"/>
+      <c r="R94" s="14"/>
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
@@ -9943,7 +10030,7 @@
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
-      <c r="R95" s="1"/>
+      <c r="R95" s="14"/>
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
@@ -9995,7 +10082,7 @@
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
-      <c r="R96" s="1"/>
+      <c r="R96" s="14"/>
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
@@ -10047,7 +10134,7 @@
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
-      <c r="R97" s="1"/>
+      <c r="R97" s="14"/>
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
@@ -10099,7 +10186,7 @@
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
-      <c r="R98" s="1"/>
+      <c r="R98" s="14"/>
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
@@ -10151,7 +10238,7 @@
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
-      <c r="R99" s="1"/>
+      <c r="R99" s="14"/>
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
@@ -10203,7 +10290,7 @@
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
-      <c r="R100" s="1"/>
+      <c r="R100" s="14"/>
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
@@ -10255,7 +10342,7 @@
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
-      <c r="R101" s="1"/>
+      <c r="R101" s="14"/>
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
@@ -10307,7 +10394,7 @@
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
-      <c r="R102" s="1"/>
+      <c r="R102" s="14"/>
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
       <c r="U102" s="1"/>
@@ -10359,7 +10446,7 @@
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
-      <c r="R103" s="1"/>
+      <c r="R103" s="14"/>
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
@@ -10411,7 +10498,7 @@
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
-      <c r="R104" s="1"/>
+      <c r="R104" s="14"/>
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
       <c r="U104" s="1"/>
@@ -10463,7 +10550,7 @@
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
-      <c r="R105" s="1"/>
+      <c r="R105" s="14"/>
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
       <c r="U105" s="1"/>
@@ -10515,7 +10602,7 @@
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
-      <c r="R106" s="1"/>
+      <c r="R106" s="14"/>
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
       <c r="U106" s="1"/>
@@ -10567,7 +10654,7 @@
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
-      <c r="R107" s="1"/>
+      <c r="R107" s="14"/>
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
@@ -10619,7 +10706,7 @@
       <c r="O108" s="1"/>
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
-      <c r="R108" s="1"/>
+      <c r="R108" s="14"/>
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
       <c r="U108" s="1"/>
@@ -10671,7 +10758,7 @@
       <c r="O109" s="1"/>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
-      <c r="R109" s="1"/>
+      <c r="R109" s="14"/>
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
       <c r="U109" s="1"/>
@@ -10723,7 +10810,7 @@
       <c r="O110" s="1"/>
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
-      <c r="R110" s="1"/>
+      <c r="R110" s="14"/>
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
       <c r="U110" s="1"/>
@@ -10775,7 +10862,7 @@
       <c r="O111" s="1"/>
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
-      <c r="R111" s="1"/>
+      <c r="R111" s="14"/>
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
       <c r="U111" s="1"/>
@@ -10827,7 +10914,7 @@
       <c r="O112" s="1"/>
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
-      <c r="R112" s="1"/>
+      <c r="R112" s="14"/>
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
       <c r="U112" s="1"/>
@@ -10879,7 +10966,7 @@
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
-      <c r="R113" s="1"/>
+      <c r="R113" s="14"/>
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
       <c r="U113" s="1"/>
@@ -10931,7 +11018,7 @@
       <c r="O114" s="1"/>
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
-      <c r="R114" s="1"/>
+      <c r="R114" s="14"/>
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
       <c r="U114" s="1"/>
@@ -10983,7 +11070,7 @@
       <c r="O115" s="1"/>
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
-      <c r="R115" s="1"/>
+      <c r="R115" s="14"/>
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
       <c r="U115" s="1"/>
@@ -11035,7 +11122,7 @@
       <c r="O116" s="1"/>
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
-      <c r="R116" s="1"/>
+      <c r="R116" s="14"/>
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
       <c r="U116" s="1"/>
@@ -11087,7 +11174,7 @@
       <c r="O117" s="1"/>
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
-      <c r="R117" s="1"/>
+      <c r="R117" s="14"/>
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
       <c r="U117" s="1"/>
@@ -11139,7 +11226,7 @@
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
-      <c r="R118" s="1"/>
+      <c r="R118" s="14"/>
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
       <c r="U118" s="1"/>
@@ -11191,7 +11278,7 @@
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
-      <c r="R119" s="1"/>
+      <c r="R119" s="14"/>
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
       <c r="U119" s="1"/>
@@ -11243,7 +11330,7 @@
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
-      <c r="R120" s="1"/>
+      <c r="R120" s="14"/>
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
       <c r="U120" s="1"/>
@@ -11295,7 +11382,7 @@
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
-      <c r="R121" s="1"/>
+      <c r="R121" s="14"/>
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
       <c r="U121" s="1"/>
@@ -11347,7 +11434,7 @@
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
-      <c r="R122" s="1"/>
+      <c r="R122" s="14"/>
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
       <c r="U122" s="1"/>
@@ -11399,7 +11486,7 @@
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
-      <c r="R123" s="1"/>
+      <c r="R123" s="14"/>
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
       <c r="U123" s="1"/>
@@ -11451,7 +11538,7 @@
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
-      <c r="R124" s="1"/>
+      <c r="R124" s="14"/>
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
       <c r="U124" s="1"/>
@@ -11503,7 +11590,7 @@
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
-      <c r="R125" s="1"/>
+      <c r="R125" s="14"/>
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
       <c r="U125" s="1"/>
@@ -11555,7 +11642,7 @@
       <c r="O126" s="1"/>
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
-      <c r="R126" s="1"/>
+      <c r="R126" s="14"/>
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
       <c r="U126" s="1"/>
@@ -11607,7 +11694,7 @@
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
-      <c r="R127" s="1"/>
+      <c r="R127" s="14"/>
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
       <c r="U127" s="1"/>
@@ -11659,7 +11746,7 @@
       <c r="O128" s="1"/>
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
-      <c r="R128" s="1"/>
+      <c r="R128" s="14"/>
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
       <c r="U128" s="1"/>
@@ -11711,7 +11798,7 @@
       <c r="O129" s="1"/>
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
-      <c r="R129" s="1"/>
+      <c r="R129" s="14"/>
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
       <c r="U129" s="1"/>
@@ -11763,7 +11850,7 @@
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
-      <c r="R130" s="1"/>
+      <c r="R130" s="14"/>
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
       <c r="U130" s="1"/>
@@ -11815,7 +11902,7 @@
       <c r="O131" s="1"/>
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
-      <c r="R131" s="1"/>
+      <c r="R131" s="14"/>
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
       <c r="U131" s="1"/>
@@ -11867,7 +11954,7 @@
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
-      <c r="R132" s="1"/>
+      <c r="R132" s="14"/>
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
       <c r="U132" s="1"/>
@@ -11919,7 +12006,7 @@
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
-      <c r="R133" s="1"/>
+      <c r="R133" s="14"/>
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
       <c r="U133" s="1"/>
@@ -11971,7 +12058,7 @@
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
-      <c r="R134" s="1"/>
+      <c r="R134" s="14"/>
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
       <c r="U134" s="1"/>
@@ -12023,7 +12110,7 @@
       <c r="O135" s="1"/>
       <c r="P135" s="1"/>
       <c r="Q135" s="1"/>
-      <c r="R135" s="1"/>
+      <c r="R135" s="14"/>
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
       <c r="U135" s="1"/>
@@ -12075,7 +12162,7 @@
       <c r="O136" s="1"/>
       <c r="P136" s="1"/>
       <c r="Q136" s="1"/>
-      <c r="R136" s="1"/>
+      <c r="R136" s="14"/>
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
       <c r="U136" s="1"/>
@@ -12127,7 +12214,7 @@
       <c r="O137" s="1"/>
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
-      <c r="R137" s="1"/>
+      <c r="R137" s="14"/>
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
       <c r="U137" s="1"/>
@@ -12179,7 +12266,7 @@
       <c r="O138" s="1"/>
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
-      <c r="R138" s="1"/>
+      <c r="R138" s="14"/>
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
       <c r="U138" s="1"/>
@@ -12231,7 +12318,7 @@
       <c r="O139" s="1"/>
       <c r="P139" s="1"/>
       <c r="Q139" s="1"/>
-      <c r="R139" s="1"/>
+      <c r="R139" s="14"/>
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
       <c r="U139" s="1"/>
@@ -12283,7 +12370,7 @@
       <c r="O140" s="1"/>
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
-      <c r="R140" s="1"/>
+      <c r="R140" s="14"/>
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
       <c r="U140" s="1"/>
@@ -12335,7 +12422,7 @@
       <c r="O141" s="1"/>
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
-      <c r="R141" s="1"/>
+      <c r="R141" s="14"/>
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
       <c r="U141" s="1"/>
@@ -12387,7 +12474,7 @@
       <c r="O142" s="1"/>
       <c r="P142" s="1"/>
       <c r="Q142" s="1"/>
-      <c r="R142" s="1"/>
+      <c r="R142" s="14"/>
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
       <c r="U142" s="1"/>
@@ -12439,7 +12526,7 @@
       <c r="O143" s="1"/>
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
-      <c r="R143" s="1"/>
+      <c r="R143" s="14"/>
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
       <c r="U143" s="1"/>
@@ -12491,7 +12578,7 @@
       <c r="O144" s="1"/>
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
-      <c r="R144" s="1"/>
+      <c r="R144" s="14"/>
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
       <c r="U144" s="1"/>
@@ -12543,7 +12630,7 @@
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
-      <c r="R145" s="1"/>
+      <c r="R145" s="14"/>
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
       <c r="U145" s="1"/>
@@ -12595,7 +12682,7 @@
       <c r="O146" s="1"/>
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
-      <c r="R146" s="1"/>
+      <c r="R146" s="14"/>
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
       <c r="U146" s="1"/>
@@ -12647,7 +12734,7 @@
       <c r="O147" s="1"/>
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
-      <c r="R147" s="1"/>
+      <c r="R147" s="14"/>
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
       <c r="U147" s="1"/>
@@ -12699,7 +12786,7 @@
       <c r="O148" s="1"/>
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
-      <c r="R148" s="1"/>
+      <c r="R148" s="14"/>
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
       <c r="U148" s="1"/>
@@ -12751,7 +12838,7 @@
       <c r="O149" s="1"/>
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
-      <c r="R149" s="1"/>
+      <c r="R149" s="14"/>
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
       <c r="U149" s="1"/>
@@ -12803,7 +12890,7 @@
       <c r="O150" s="1"/>
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
-      <c r="R150" s="1"/>
+      <c r="R150" s="14"/>
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
       <c r="U150" s="1"/>
@@ -12855,7 +12942,7 @@
       <c r="O151" s="1"/>
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
-      <c r="R151" s="1"/>
+      <c r="R151" s="14"/>
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
       <c r="U151" s="1"/>
@@ -12907,7 +12994,7 @@
       <c r="O152" s="1"/>
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
-      <c r="R152" s="1"/>
+      <c r="R152" s="14"/>
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
       <c r="U152" s="1"/>
@@ -12959,7 +13046,7 @@
       <c r="O153" s="1"/>
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
-      <c r="R153" s="1"/>
+      <c r="R153" s="14"/>
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
       <c r="U153" s="1"/>
@@ -13011,7 +13098,7 @@
       <c r="O154" s="1"/>
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
-      <c r="R154" s="1"/>
+      <c r="R154" s="14"/>
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
       <c r="U154" s="1"/>
@@ -13063,7 +13150,7 @@
       <c r="O155" s="1"/>
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
-      <c r="R155" s="1"/>
+      <c r="R155" s="14"/>
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
       <c r="U155" s="1"/>
@@ -13115,7 +13202,7 @@
       <c r="O156" s="1"/>
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
-      <c r="R156" s="1"/>
+      <c r="R156" s="14"/>
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
       <c r="U156" s="1"/>
@@ -13167,7 +13254,7 @@
       <c r="O157" s="1"/>
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
-      <c r="R157" s="1"/>
+      <c r="R157" s="14"/>
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
       <c r="U157" s="1"/>
@@ -13219,7 +13306,7 @@
       <c r="O158" s="1"/>
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
-      <c r="R158" s="1"/>
+      <c r="R158" s="14"/>
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
       <c r="U158" s="1"/>
@@ -13271,7 +13358,7 @@
       <c r="O159" s="1"/>
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
-      <c r="R159" s="1"/>
+      <c r="R159" s="14"/>
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
       <c r="U159" s="1"/>
@@ -13323,7 +13410,7 @@
       <c r="O160" s="1"/>
       <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
-      <c r="R160" s="1"/>
+      <c r="R160" s="14"/>
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
       <c r="U160" s="1"/>
@@ -13375,7 +13462,7 @@
       <c r="O161" s="1"/>
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
-      <c r="R161" s="1"/>
+      <c r="R161" s="14"/>
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
       <c r="U161" s="1"/>
@@ -13427,7 +13514,7 @@
       <c r="O162" s="1"/>
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
-      <c r="R162" s="1"/>
+      <c r="R162" s="14"/>
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
       <c r="U162" s="1"/>
@@ -13479,7 +13566,7 @@
       <c r="O163" s="1"/>
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
-      <c r="R163" s="1"/>
+      <c r="R163" s="14"/>
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
       <c r="U163" s="1"/>
@@ -13531,7 +13618,7 @@
       <c r="O164" s="1"/>
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
-      <c r="R164" s="1"/>
+      <c r="R164" s="14"/>
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
       <c r="U164" s="1"/>
@@ -13583,7 +13670,7 @@
       <c r="O165" s="1"/>
       <c r="P165" s="1"/>
       <c r="Q165" s="1"/>
-      <c r="R165" s="1"/>
+      <c r="R165" s="14"/>
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
       <c r="U165" s="1"/>
@@ -13635,7 +13722,7 @@
       <c r="O166" s="1"/>
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
-      <c r="R166" s="1"/>
+      <c r="R166" s="14"/>
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
       <c r="U166" s="1"/>
@@ -13687,7 +13774,7 @@
       <c r="O167" s="1"/>
       <c r="P167" s="1"/>
       <c r="Q167" s="1"/>
-      <c r="R167" s="1"/>
+      <c r="R167" s="14"/>
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
       <c r="U167" s="1"/>
@@ -13739,7 +13826,7 @@
       <c r="O168" s="1"/>
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
-      <c r="R168" s="1"/>
+      <c r="R168" s="14"/>
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
       <c r="U168" s="1"/>
@@ -13791,7 +13878,7 @@
       <c r="O169" s="1"/>
       <c r="P169" s="1"/>
       <c r="Q169" s="1"/>
-      <c r="R169" s="1"/>
+      <c r="R169" s="14"/>
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
       <c r="U169" s="1"/>
@@ -13843,7 +13930,7 @@
       <c r="O170" s="1"/>
       <c r="P170" s="1"/>
       <c r="Q170" s="1"/>
-      <c r="R170" s="1"/>
+      <c r="R170" s="14"/>
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
       <c r="U170" s="1"/>
@@ -13895,7 +13982,7 @@
       <c r="O171" s="1"/>
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
-      <c r="R171" s="1"/>
+      <c r="R171" s="14"/>
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
       <c r="U171" s="1"/>
@@ -13947,7 +14034,7 @@
       <c r="O172" s="1"/>
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
-      <c r="R172" s="1"/>
+      <c r="R172" s="14"/>
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
       <c r="U172" s="1"/>
@@ -13999,7 +14086,7 @@
       <c r="O173" s="1"/>
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
-      <c r="R173" s="1"/>
+      <c r="R173" s="14"/>
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
       <c r="U173" s="1"/>
@@ -14051,7 +14138,7 @@
       <c r="O174" s="1"/>
       <c r="P174" s="1"/>
       <c r="Q174" s="1"/>
-      <c r="R174" s="1"/>
+      <c r="R174" s="14"/>
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
       <c r="U174" s="1"/>
@@ -14103,7 +14190,7 @@
       <c r="O175" s="1"/>
       <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
-      <c r="R175" s="1"/>
+      <c r="R175" s="14"/>
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
       <c r="U175" s="1"/>
@@ -14155,7 +14242,7 @@
       <c r="O176" s="1"/>
       <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
-      <c r="R176" s="1"/>
+      <c r="R176" s="14"/>
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
       <c r="U176" s="1"/>
@@ -14207,7 +14294,7 @@
       <c r="O177" s="1"/>
       <c r="P177" s="1"/>
       <c r="Q177" s="1"/>
-      <c r="R177" s="1"/>
+      <c r="R177" s="14"/>
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
       <c r="U177" s="1"/>
@@ -14259,7 +14346,7 @@
       <c r="O178" s="1"/>
       <c r="P178" s="1"/>
       <c r="Q178" s="1"/>
-      <c r="R178" s="1"/>
+      <c r="R178" s="14"/>
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
       <c r="U178" s="1"/>
@@ -14311,7 +14398,7 @@
       <c r="O179" s="1"/>
       <c r="P179" s="1"/>
       <c r="Q179" s="1"/>
-      <c r="R179" s="1"/>
+      <c r="R179" s="14"/>
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
       <c r="U179" s="1"/>
@@ -14363,7 +14450,7 @@
       <c r="O180" s="1"/>
       <c r="P180" s="1"/>
       <c r="Q180" s="1"/>
-      <c r="R180" s="1"/>
+      <c r="R180" s="14"/>
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
       <c r="U180" s="1"/>
@@ -14415,7 +14502,7 @@
       <c r="O181" s="1"/>
       <c r="P181" s="1"/>
       <c r="Q181" s="1"/>
-      <c r="R181" s="1"/>
+      <c r="R181" s="14"/>
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
       <c r="U181" s="1"/>
@@ -14467,7 +14554,7 @@
       <c r="O182" s="1"/>
       <c r="P182" s="1"/>
       <c r="Q182" s="1"/>
-      <c r="R182" s="1"/>
+      <c r="R182" s="14"/>
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
       <c r="U182" s="1"/>
@@ -14519,7 +14606,7 @@
       <c r="O183" s="1"/>
       <c r="P183" s="1"/>
       <c r="Q183" s="1"/>
-      <c r="R183" s="1"/>
+      <c r="R183" s="14"/>
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
       <c r="U183" s="1"/>
@@ -14571,7 +14658,7 @@
       <c r="O184" s="1"/>
       <c r="P184" s="1"/>
       <c r="Q184" s="1"/>
-      <c r="R184" s="1"/>
+      <c r="R184" s="14"/>
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
       <c r="U184" s="1"/>
@@ -14623,7 +14710,7 @@
       <c r="O185" s="1"/>
       <c r="P185" s="1"/>
       <c r="Q185" s="1"/>
-      <c r="R185" s="1"/>
+      <c r="R185" s="14"/>
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
       <c r="U185" s="1"/>
@@ -14675,7 +14762,7 @@
       <c r="O186" s="1"/>
       <c r="P186" s="1"/>
       <c r="Q186" s="1"/>
-      <c r="R186" s="1"/>
+      <c r="R186" s="14"/>
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
       <c r="U186" s="1"/>
@@ -14727,7 +14814,7 @@
       <c r="O187" s="1"/>
       <c r="P187" s="1"/>
       <c r="Q187" s="1"/>
-      <c r="R187" s="1"/>
+      <c r="R187" s="14"/>
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
       <c r="U187" s="1"/>
@@ -14779,7 +14866,7 @@
       <c r="O188" s="1"/>
       <c r="P188" s="1"/>
       <c r="Q188" s="1"/>
-      <c r="R188" s="1"/>
+      <c r="R188" s="14"/>
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
       <c r="U188" s="1"/>
@@ -14831,7 +14918,7 @@
       <c r="O189" s="1"/>
       <c r="P189" s="1"/>
       <c r="Q189" s="1"/>
-      <c r="R189" s="1"/>
+      <c r="R189" s="14"/>
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
       <c r="U189" s="1"/>
@@ -14883,7 +14970,7 @@
       <c r="O190" s="1"/>
       <c r="P190" s="1"/>
       <c r="Q190" s="1"/>
-      <c r="R190" s="1"/>
+      <c r="R190" s="14"/>
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
       <c r="U190" s="1"/>
@@ -14935,7 +15022,7 @@
       <c r="O191" s="1"/>
       <c r="P191" s="1"/>
       <c r="Q191" s="1"/>
-      <c r="R191" s="1"/>
+      <c r="R191" s="14"/>
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
       <c r="U191" s="1"/>
@@ -14987,7 +15074,7 @@
       <c r="O192" s="1"/>
       <c r="P192" s="1"/>
       <c r="Q192" s="1"/>
-      <c r="R192" s="1"/>
+      <c r="R192" s="14"/>
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
       <c r="U192" s="1"/>
@@ -15039,7 +15126,7 @@
       <c r="O193" s="1"/>
       <c r="P193" s="1"/>
       <c r="Q193" s="1"/>
-      <c r="R193" s="1"/>
+      <c r="R193" s="14"/>
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
       <c r="U193" s="1"/>
@@ -15091,7 +15178,7 @@
       <c r="O194" s="1"/>
       <c r="P194" s="1"/>
       <c r="Q194" s="1"/>
-      <c r="R194" s="1"/>
+      <c r="R194" s="14"/>
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
       <c r="U194" s="1"/>
@@ -15143,7 +15230,7 @@
       <c r="O195" s="1"/>
       <c r="P195" s="1"/>
       <c r="Q195" s="1"/>
-      <c r="R195" s="1"/>
+      <c r="R195" s="14"/>
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
       <c r="U195" s="1"/>
@@ -15195,7 +15282,7 @@
       <c r="O196" s="1"/>
       <c r="P196" s="1"/>
       <c r="Q196" s="1"/>
-      <c r="R196" s="1"/>
+      <c r="R196" s="14"/>
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
       <c r="U196" s="1"/>
@@ -15247,7 +15334,7 @@
       <c r="O197" s="1"/>
       <c r="P197" s="1"/>
       <c r="Q197" s="1"/>
-      <c r="R197" s="1"/>
+      <c r="R197" s="14"/>
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
       <c r="U197" s="1"/>
@@ -15299,7 +15386,7 @@
       <c r="O198" s="1"/>
       <c r="P198" s="1"/>
       <c r="Q198" s="1"/>
-      <c r="R198" s="1"/>
+      <c r="R198" s="14"/>
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
       <c r="U198" s="1"/>
@@ -15351,7 +15438,7 @@
       <c r="O199" s="1"/>
       <c r="P199" s="1"/>
       <c r="Q199" s="1"/>
-      <c r="R199" s="1"/>
+      <c r="R199" s="14"/>
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
       <c r="U199" s="1"/>
@@ -15403,7 +15490,7 @@
       <c r="O200" s="1"/>
       <c r="P200" s="1"/>
       <c r="Q200" s="1"/>
-      <c r="R200" s="1"/>
+      <c r="R200" s="14"/>
       <c r="S200" s="1"/>
       <c r="T200" s="1"/>
       <c r="U200" s="1"/>
@@ -15455,7 +15542,7 @@
       <c r="O201" s="1"/>
       <c r="P201" s="1"/>
       <c r="Q201" s="1"/>
-      <c r="R201" s="1"/>
+      <c r="R201" s="14"/>
       <c r="S201" s="1"/>
       <c r="T201" s="1"/>
       <c r="U201" s="1"/>
@@ -15507,7 +15594,7 @@
       <c r="O202" s="1"/>
       <c r="P202" s="1"/>
       <c r="Q202" s="1"/>
-      <c r="R202" s="1"/>
+      <c r="R202" s="14"/>
       <c r="S202" s="1"/>
       <c r="T202" s="1"/>
       <c r="U202" s="1"/>
@@ -15559,7 +15646,7 @@
       <c r="O203" s="1"/>
       <c r="P203" s="1"/>
       <c r="Q203" s="1"/>
-      <c r="R203" s="1"/>
+      <c r="R203" s="14"/>
       <c r="S203" s="1"/>
       <c r="T203" s="1"/>
       <c r="U203" s="1"/>
@@ -15611,7 +15698,7 @@
       <c r="O204" s="1"/>
       <c r="P204" s="1"/>
       <c r="Q204" s="1"/>
-      <c r="R204" s="1"/>
+      <c r="R204" s="14"/>
       <c r="S204" s="1"/>
       <c r="T204" s="1"/>
       <c r="U204" s="1"/>
@@ -15663,7 +15750,7 @@
       <c r="O205" s="1"/>
       <c r="P205" s="1"/>
       <c r="Q205" s="1"/>
-      <c r="R205" s="1"/>
+      <c r="R205" s="14"/>
       <c r="S205" s="1"/>
       <c r="T205" s="1"/>
       <c r="U205" s="1"/>
@@ -15715,7 +15802,7 @@
       <c r="O206" s="1"/>
       <c r="P206" s="1"/>
       <c r="Q206" s="1"/>
-      <c r="R206" s="1"/>
+      <c r="R206" s="14"/>
       <c r="S206" s="1"/>
       <c r="T206" s="1"/>
       <c r="U206" s="1"/>
@@ -15767,7 +15854,7 @@
       <c r="O207" s="1"/>
       <c r="P207" s="1"/>
       <c r="Q207" s="1"/>
-      <c r="R207" s="1"/>
+      <c r="R207" s="14"/>
       <c r="S207" s="1"/>
       <c r="T207" s="1"/>
       <c r="U207" s="1"/>
@@ -15819,7 +15906,7 @@
       <c r="O208" s="1"/>
       <c r="P208" s="1"/>
       <c r="Q208" s="1"/>
-      <c r="R208" s="1"/>
+      <c r="R208" s="14"/>
       <c r="S208" s="1"/>
       <c r="T208" s="1"/>
       <c r="U208" s="1"/>
@@ -15871,7 +15958,7 @@
       <c r="O209" s="1"/>
       <c r="P209" s="1"/>
       <c r="Q209" s="1"/>
-      <c r="R209" s="1"/>
+      <c r="R209" s="14"/>
       <c r="S209" s="1"/>
       <c r="T209" s="1"/>
       <c r="U209" s="1"/>
@@ -15923,7 +16010,7 @@
       <c r="O210" s="1"/>
       <c r="P210" s="1"/>
       <c r="Q210" s="1"/>
-      <c r="R210" s="1"/>
+      <c r="R210" s="14"/>
       <c r="S210" s="1"/>
       <c r="T210" s="1"/>
       <c r="U210" s="1"/>
@@ -15975,7 +16062,7 @@
       <c r="O211" s="1"/>
       <c r="P211" s="1"/>
       <c r="Q211" s="1"/>
-      <c r="R211" s="1"/>
+      <c r="R211" s="14"/>
       <c r="S211" s="1"/>
       <c r="T211" s="1"/>
       <c r="U211" s="1"/>
@@ -16027,7 +16114,7 @@
       <c r="O212" s="1"/>
       <c r="P212" s="1"/>
       <c r="Q212" s="1"/>
-      <c r="R212" s="1"/>
+      <c r="R212" s="14"/>
       <c r="S212" s="1"/>
       <c r="T212" s="1"/>
       <c r="U212" s="1"/>
@@ -16079,7 +16166,7 @@
       <c r="O213" s="1"/>
       <c r="P213" s="1"/>
       <c r="Q213" s="1"/>
-      <c r="R213" s="1"/>
+      <c r="R213" s="14"/>
       <c r="S213" s="1"/>
       <c r="T213" s="1"/>
       <c r="U213" s="1"/>
@@ -16131,7 +16218,7 @@
       <c r="O214" s="1"/>
       <c r="P214" s="1"/>
       <c r="Q214" s="1"/>
-      <c r="R214" s="1"/>
+      <c r="R214" s="14"/>
       <c r="S214" s="1"/>
       <c r="T214" s="1"/>
       <c r="U214" s="1"/>
@@ -16183,7 +16270,7 @@
       <c r="O215" s="1"/>
       <c r="P215" s="1"/>
       <c r="Q215" s="1"/>
-      <c r="R215" s="1"/>
+      <c r="R215" s="14"/>
       <c r="S215" s="1"/>
       <c r="T215" s="1"/>
       <c r="U215" s="1"/>
@@ -16235,7 +16322,7 @@
       <c r="O216" s="1"/>
       <c r="P216" s="1"/>
       <c r="Q216" s="1"/>
-      <c r="R216" s="1"/>
+      <c r="R216" s="14"/>
       <c r="S216" s="1"/>
       <c r="T216" s="1"/>
       <c r="U216" s="1"/>
@@ -16287,7 +16374,7 @@
       <c r="O217" s="1"/>
       <c r="P217" s="1"/>
       <c r="Q217" s="1"/>
-      <c r="R217" s="1"/>
+      <c r="R217" s="14"/>
       <c r="S217" s="1"/>
       <c r="T217" s="1"/>
       <c r="U217" s="1"/>
@@ -16339,7 +16426,7 @@
       <c r="O218" s="1"/>
       <c r="P218" s="1"/>
       <c r="Q218" s="1"/>
-      <c r="R218" s="1"/>
+      <c r="R218" s="14"/>
       <c r="S218" s="1"/>
       <c r="T218" s="1"/>
       <c r="U218" s="1"/>
@@ -16391,7 +16478,7 @@
       <c r="O219" s="1"/>
       <c r="P219" s="1"/>
       <c r="Q219" s="1"/>
-      <c r="R219" s="1"/>
+      <c r="R219" s="14"/>
       <c r="S219" s="1"/>
       <c r="T219" s="1"/>
       <c r="U219" s="1"/>
@@ -16443,7 +16530,7 @@
       <c r="O220" s="1"/>
       <c r="P220" s="1"/>
       <c r="Q220" s="1"/>
-      <c r="R220" s="1"/>
+      <c r="R220" s="14"/>
       <c r="S220" s="1"/>
       <c r="T220" s="1"/>
       <c r="U220" s="1"/>
@@ -16495,7 +16582,7 @@
       <c r="O221" s="1"/>
       <c r="P221" s="1"/>
       <c r="Q221" s="1"/>
-      <c r="R221" s="1"/>
+      <c r="R221" s="14"/>
       <c r="S221" s="1"/>
       <c r="T221" s="1"/>
       <c r="U221" s="1"/>
@@ -16547,7 +16634,7 @@
       <c r="O222" s="1"/>
       <c r="P222" s="1"/>
       <c r="Q222" s="1"/>
-      <c r="R222" s="1"/>
+      <c r="R222" s="14"/>
       <c r="S222" s="1"/>
       <c r="T222" s="1"/>
       <c r="U222" s="1"/>
@@ -16599,7 +16686,7 @@
       <c r="O223" s="1"/>
       <c r="P223" s="1"/>
       <c r="Q223" s="1"/>
-      <c r="R223" s="1"/>
+      <c r="R223" s="14"/>
       <c r="S223" s="1"/>
       <c r="T223" s="1"/>
       <c r="U223" s="1"/>
@@ -16651,7 +16738,7 @@
       <c r="O224" s="1"/>
       <c r="P224" s="1"/>
       <c r="Q224" s="1"/>
-      <c r="R224" s="1"/>
+      <c r="R224" s="14"/>
       <c r="S224" s="1"/>
       <c r="T224" s="1"/>
       <c r="U224" s="1"/>
@@ -16703,7 +16790,7 @@
       <c r="O225" s="1"/>
       <c r="P225" s="1"/>
       <c r="Q225" s="1"/>
-      <c r="R225" s="1"/>
+      <c r="R225" s="14"/>
       <c r="S225" s="1"/>
       <c r="T225" s="1"/>
       <c r="U225" s="1"/>
@@ -16755,7 +16842,7 @@
       <c r="O226" s="1"/>
       <c r="P226" s="1"/>
       <c r="Q226" s="1"/>
-      <c r="R226" s="1"/>
+      <c r="R226" s="14"/>
       <c r="S226" s="1"/>
       <c r="T226" s="1"/>
       <c r="U226" s="1"/>
@@ -16807,7 +16894,7 @@
       <c r="O227" s="1"/>
       <c r="P227" s="1"/>
       <c r="Q227" s="1"/>
-      <c r="R227" s="1"/>
+      <c r="R227" s="14"/>
       <c r="S227" s="1"/>
       <c r="T227" s="1"/>
       <c r="U227" s="1"/>
@@ -16859,7 +16946,7 @@
       <c r="O228" s="1"/>
       <c r="P228" s="1"/>
       <c r="Q228" s="1"/>
-      <c r="R228" s="1"/>
+      <c r="R228" s="14"/>
       <c r="S228" s="1"/>
       <c r="T228" s="1"/>
       <c r="U228" s="1"/>
@@ -16911,7 +16998,7 @@
       <c r="O229" s="1"/>
       <c r="P229" s="1"/>
       <c r="Q229" s="1"/>
-      <c r="R229" s="1"/>
+      <c r="R229" s="14"/>
       <c r="S229" s="1"/>
       <c r="T229" s="1"/>
       <c r="U229" s="1"/>
@@ -16963,7 +17050,7 @@
       <c r="O230" s="1"/>
       <c r="P230" s="1"/>
       <c r="Q230" s="1"/>
-      <c r="R230" s="1"/>
+      <c r="R230" s="14"/>
       <c r="S230" s="1"/>
       <c r="T230" s="1"/>
       <c r="U230" s="1"/>
@@ -17015,7 +17102,7 @@
       <c r="O231" s="1"/>
       <c r="P231" s="1"/>
       <c r="Q231" s="1"/>
-      <c r="R231" s="1"/>
+      <c r="R231" s="14"/>
       <c r="S231" s="1"/>
       <c r="T231" s="1"/>
       <c r="U231" s="1"/>
@@ -17067,7 +17154,7 @@
       <c r="O232" s="1"/>
       <c r="P232" s="1"/>
       <c r="Q232" s="1"/>
-      <c r="R232" s="1"/>
+      <c r="R232" s="14"/>
       <c r="S232" s="1"/>
       <c r="T232" s="1"/>
       <c r="U232" s="1"/>
@@ -17119,7 +17206,7 @@
       <c r="O233" s="1"/>
       <c r="P233" s="1"/>
       <c r="Q233" s="1"/>
-      <c r="R233" s="1"/>
+      <c r="R233" s="14"/>
       <c r="S233" s="1"/>
       <c r="T233" s="1"/>
       <c r="U233" s="1"/>
@@ -17171,7 +17258,7 @@
       <c r="O234" s="1"/>
       <c r="P234" s="1"/>
       <c r="Q234" s="1"/>
-      <c r="R234" s="1"/>
+      <c r="R234" s="14"/>
       <c r="S234" s="1"/>
       <c r="T234" s="1"/>
       <c r="U234" s="1"/>
@@ -17223,7 +17310,7 @@
       <c r="O235" s="1"/>
       <c r="P235" s="1"/>
       <c r="Q235" s="1"/>
-      <c r="R235" s="1"/>
+      <c r="R235" s="14"/>
       <c r="S235" s="1"/>
       <c r="T235" s="1"/>
       <c r="U235" s="1"/>
@@ -17275,7 +17362,7 @@
       <c r="O236" s="1"/>
       <c r="P236" s="1"/>
       <c r="Q236" s="1"/>
-      <c r="R236" s="1"/>
+      <c r="R236" s="14"/>
       <c r="S236" s="1"/>
       <c r="T236" s="1"/>
       <c r="U236" s="1"/>
@@ -17327,7 +17414,7 @@
       <c r="O237" s="1"/>
       <c r="P237" s="1"/>
       <c r="Q237" s="1"/>
-      <c r="R237" s="1"/>
+      <c r="R237" s="14"/>
       <c r="S237" s="1"/>
       <c r="T237" s="1"/>
       <c r="U237" s="1"/>
@@ -17379,7 +17466,7 @@
       <c r="O238" s="1"/>
       <c r="P238" s="1"/>
       <c r="Q238" s="1"/>
-      <c r="R238" s="1"/>
+      <c r="R238" s="14"/>
       <c r="S238" s="1"/>
       <c r="T238" s="1"/>
       <c r="U238" s="1"/>
@@ -17431,7 +17518,7 @@
       <c r="O239" s="1"/>
       <c r="P239" s="1"/>
       <c r="Q239" s="1"/>
-      <c r="R239" s="1"/>
+      <c r="R239" s="14"/>
       <c r="S239" s="1"/>
       <c r="T239" s="1"/>
       <c r="U239" s="1"/>
@@ -17483,7 +17570,7 @@
       <c r="O240" s="1"/>
       <c r="P240" s="1"/>
       <c r="Q240" s="1"/>
-      <c r="R240" s="1"/>
+      <c r="R240" s="14"/>
       <c r="S240" s="1"/>
       <c r="T240" s="1"/>
       <c r="U240" s="1"/>
@@ -17535,7 +17622,7 @@
       <c r="O241" s="1"/>
       <c r="P241" s="1"/>
       <c r="Q241" s="1"/>
-      <c r="R241" s="1"/>
+      <c r="R241" s="14"/>
       <c r="S241" s="1"/>
       <c r="T241" s="1"/>
       <c r="U241" s="1"/>
@@ -17587,7 +17674,7 @@
       <c r="O242" s="1"/>
       <c r="P242" s="1"/>
       <c r="Q242" s="1"/>
-      <c r="R242" s="1"/>
+      <c r="R242" s="14"/>
       <c r="S242" s="1"/>
       <c r="T242" s="1"/>
       <c r="U242" s="1"/>
@@ -17639,7 +17726,7 @@
       <c r="O243" s="1"/>
       <c r="P243" s="1"/>
       <c r="Q243" s="1"/>
-      <c r="R243" s="1"/>
+      <c r="R243" s="14"/>
       <c r="S243" s="1"/>
       <c r="T243" s="1"/>
       <c r="U243" s="1"/>
@@ -17691,7 +17778,7 @@
       <c r="O244" s="1"/>
       <c r="P244" s="1"/>
       <c r="Q244" s="1"/>
-      <c r="R244" s="1"/>
+      <c r="R244" s="14"/>
       <c r="S244" s="1"/>
       <c r="T244" s="1"/>
       <c r="U244" s="1"/>
@@ -17743,7 +17830,7 @@
       <c r="O245" s="1"/>
       <c r="P245" s="1"/>
       <c r="Q245" s="1"/>
-      <c r="R245" s="1"/>
+      <c r="R245" s="14"/>
       <c r="S245" s="1"/>
       <c r="T245" s="1"/>
       <c r="U245" s="1"/>
@@ -17795,7 +17882,7 @@
       <c r="O246" s="1"/>
       <c r="P246" s="1"/>
       <c r="Q246" s="1"/>
-      <c r="R246" s="1"/>
+      <c r="R246" s="14"/>
       <c r="S246" s="1"/>
       <c r="T246" s="1"/>
       <c r="U246" s="1"/>
@@ -17847,7 +17934,7 @@
       <c r="O247" s="1"/>
       <c r="P247" s="1"/>
       <c r="Q247" s="1"/>
-      <c r="R247" s="1"/>
+      <c r="R247" s="14"/>
       <c r="S247" s="1"/>
       <c r="T247" s="1"/>
       <c r="U247" s="1"/>
@@ -17899,7 +17986,7 @@
       <c r="O248" s="1"/>
       <c r="P248" s="1"/>
       <c r="Q248" s="1"/>
-      <c r="R248" s="1"/>
+      <c r="R248" s="14"/>
       <c r="S248" s="1"/>
       <c r="T248" s="1"/>
       <c r="U248" s="1"/>
@@ -17951,7 +18038,7 @@
       <c r="O249" s="1"/>
       <c r="P249" s="1"/>
       <c r="Q249" s="1"/>
-      <c r="R249" s="1"/>
+      <c r="R249" s="14"/>
       <c r="S249" s="1"/>
       <c r="T249" s="1"/>
       <c r="U249" s="1"/>
@@ -18003,7 +18090,7 @@
       <c r="O250" s="1"/>
       <c r="P250" s="1"/>
       <c r="Q250" s="1"/>
-      <c r="R250" s="1"/>
+      <c r="R250" s="14"/>
       <c r="S250" s="1"/>
       <c r="T250" s="1"/>
       <c r="U250" s="1"/>
@@ -18055,7 +18142,7 @@
       <c r="O251" s="1"/>
       <c r="P251" s="1"/>
       <c r="Q251" s="1"/>
-      <c r="R251" s="1"/>
+      <c r="R251" s="14"/>
       <c r="S251" s="1"/>
       <c r="T251" s="1"/>
       <c r="U251" s="1"/>
@@ -18107,7 +18194,7 @@
       <c r="O252" s="1"/>
       <c r="P252" s="1"/>
       <c r="Q252" s="1"/>
-      <c r="R252" s="1"/>
+      <c r="R252" s="14"/>
       <c r="S252" s="1"/>
       <c r="T252" s="1"/>
       <c r="U252" s="1"/>
@@ -18159,7 +18246,7 @@
       <c r="O253" s="1"/>
       <c r="P253" s="1"/>
       <c r="Q253" s="1"/>
-      <c r="R253" s="1"/>
+      <c r="R253" s="14"/>
       <c r="S253" s="1"/>
       <c r="T253" s="1"/>
       <c r="U253" s="1"/>
@@ -18211,7 +18298,7 @@
       <c r="O254" s="1"/>
       <c r="P254" s="1"/>
       <c r="Q254" s="1"/>
-      <c r="R254" s="1"/>
+      <c r="R254" s="14"/>
       <c r="S254" s="1"/>
       <c r="T254" s="1"/>
       <c r="U254" s="1"/>
@@ -18263,7 +18350,7 @@
       <c r="O255" s="1"/>
       <c r="P255" s="1"/>
       <c r="Q255" s="1"/>
-      <c r="R255" s="1"/>
+      <c r="R255" s="14"/>
       <c r="S255" s="1"/>
       <c r="T255" s="1"/>
       <c r="U255" s="1"/>
@@ -18315,7 +18402,7 @@
       <c r="O256" s="1"/>
       <c r="P256" s="1"/>
       <c r="Q256" s="1"/>
-      <c r="R256" s="1"/>
+      <c r="R256" s="14"/>
       <c r="S256" s="1"/>
       <c r="T256" s="1"/>
       <c r="U256" s="1"/>
@@ -18367,7 +18454,7 @@
       <c r="O257" s="1"/>
       <c r="P257" s="1"/>
       <c r="Q257" s="1"/>
-      <c r="R257" s="1"/>
+      <c r="R257" s="14"/>
       <c r="S257" s="1"/>
       <c r="T257" s="1"/>
       <c r="U257" s="1"/>
@@ -18419,7 +18506,7 @@
       <c r="O258" s="1"/>
       <c r="P258" s="1"/>
       <c r="Q258" s="1"/>
-      <c r="R258" s="1"/>
+      <c r="R258" s="14"/>
       <c r="S258" s="1"/>
       <c r="T258" s="1"/>
       <c r="U258" s="1"/>
@@ -18471,7 +18558,7 @@
       <c r="O259" s="1"/>
       <c r="P259" s="1"/>
       <c r="Q259" s="1"/>
-      <c r="R259" s="1"/>
+      <c r="R259" s="14"/>
       <c r="S259" s="1"/>
       <c r="T259" s="1"/>
       <c r="U259" s="1"/>
@@ -18523,7 +18610,7 @@
       <c r="O260" s="1"/>
       <c r="P260" s="1"/>
       <c r="Q260" s="1"/>
-      <c r="R260" s="1"/>
+      <c r="R260" s="14"/>
       <c r="S260" s="1"/>
       <c r="T260" s="1"/>
       <c r="U260" s="1"/>
@@ -18575,7 +18662,7 @@
       <c r="O261" s="1"/>
       <c r="P261" s="1"/>
       <c r="Q261" s="1"/>
-      <c r="R261" s="1"/>
+      <c r="R261" s="14"/>
       <c r="S261" s="1"/>
       <c r="T261" s="1"/>
       <c r="U261" s="1"/>
@@ -18627,7 +18714,7 @@
       <c r="O262" s="1"/>
       <c r="P262" s="1"/>
       <c r="Q262" s="1"/>
-      <c r="R262" s="1"/>
+      <c r="R262" s="14"/>
       <c r="S262" s="1"/>
       <c r="T262" s="1"/>
       <c r="U262" s="1"/>
@@ -18679,7 +18766,7 @@
       <c r="O263" s="1"/>
       <c r="P263" s="1"/>
       <c r="Q263" s="1"/>
-      <c r="R263" s="1"/>
+      <c r="R263" s="14"/>
       <c r="S263" s="1"/>
       <c r="T263" s="1"/>
       <c r="U263" s="1"/>
@@ -18731,7 +18818,7 @@
       <c r="O264" s="1"/>
       <c r="P264" s="1"/>
       <c r="Q264" s="1"/>
-      <c r="R264" s="1"/>
+      <c r="R264" s="14"/>
       <c r="S264" s="1"/>
       <c r="T264" s="1"/>
       <c r="U264" s="1"/>
@@ -18783,7 +18870,7 @@
       <c r="O265" s="1"/>
       <c r="P265" s="1"/>
       <c r="Q265" s="1"/>
-      <c r="R265" s="1"/>
+      <c r="R265" s="14"/>
       <c r="S265" s="1"/>
       <c r="T265" s="1"/>
       <c r="U265" s="1"/>
@@ -18835,7 +18922,7 @@
       <c r="O266" s="1"/>
       <c r="P266" s="1"/>
       <c r="Q266" s="1"/>
-      <c r="R266" s="1"/>
+      <c r="R266" s="14"/>
       <c r="S266" s="1"/>
       <c r="T266" s="1"/>
       <c r="U266" s="1"/>
@@ -18887,7 +18974,7 @@
       <c r="O267" s="1"/>
       <c r="P267" s="1"/>
       <c r="Q267" s="1"/>
-      <c r="R267" s="1"/>
+      <c r="R267" s="14"/>
       <c r="S267" s="1"/>
       <c r="T267" s="1"/>
       <c r="U267" s="1"/>
@@ -18939,7 +19026,7 @@
       <c r="O268" s="1"/>
       <c r="P268" s="1"/>
       <c r="Q268" s="1"/>
-      <c r="R268" s="1"/>
+      <c r="R268" s="14"/>
       <c r="S268" s="1"/>
       <c r="T268" s="1"/>
       <c r="U268" s="1"/>
@@ -18991,7 +19078,7 @@
       <c r="O269" s="1"/>
       <c r="P269" s="1"/>
       <c r="Q269" s="1"/>
-      <c r="R269" s="1"/>
+      <c r="R269" s="14"/>
       <c r="S269" s="1"/>
       <c r="T269" s="1"/>
       <c r="U269" s="1"/>
@@ -19043,7 +19130,7 @@
       <c r="O270" s="1"/>
       <c r="P270" s="1"/>
       <c r="Q270" s="1"/>
-      <c r="R270" s="1"/>
+      <c r="R270" s="14"/>
       <c r="S270" s="1"/>
       <c r="T270" s="1"/>
       <c r="U270" s="1"/>
@@ -19095,7 +19182,7 @@
       <c r="O271" s="1"/>
       <c r="P271" s="1"/>
       <c r="Q271" s="1"/>
-      <c r="R271" s="1"/>
+      <c r="R271" s="14"/>
       <c r="S271" s="1"/>
       <c r="T271" s="1"/>
       <c r="U271" s="1"/>
@@ -19147,7 +19234,7 @@
       <c r="O272" s="1"/>
       <c r="P272" s="1"/>
       <c r="Q272" s="1"/>
-      <c r="R272" s="1"/>
+      <c r="R272" s="14"/>
       <c r="S272" s="1"/>
       <c r="T272" s="1"/>
       <c r="U272" s="1"/>
@@ -19199,7 +19286,7 @@
       <c r="O273" s="1"/>
       <c r="P273" s="1"/>
       <c r="Q273" s="1"/>
-      <c r="R273" s="1"/>
+      <c r="R273" s="14"/>
       <c r="S273" s="1"/>
       <c r="T273" s="1"/>
       <c r="U273" s="1"/>
@@ -19251,7 +19338,7 @@
       <c r="O274" s="1"/>
       <c r="P274" s="1"/>
       <c r="Q274" s="1"/>
-      <c r="R274" s="1"/>
+      <c r="R274" s="14"/>
       <c r="S274" s="1"/>
       <c r="T274" s="1"/>
       <c r="U274" s="1"/>
@@ -19303,7 +19390,7 @@
       <c r="O275" s="1"/>
       <c r="P275" s="1"/>
       <c r="Q275" s="1"/>
-      <c r="R275" s="1"/>
+      <c r="R275" s="14"/>
       <c r="S275" s="1"/>
       <c r="T275" s="1"/>
       <c r="U275" s="1"/>
@@ -19355,7 +19442,7 @@
       <c r="O276" s="1"/>
       <c r="P276" s="1"/>
       <c r="Q276" s="1"/>
-      <c r="R276" s="1"/>
+      <c r="R276" s="14"/>
       <c r="S276" s="1"/>
       <c r="T276" s="1"/>
       <c r="U276" s="1"/>
@@ -19407,7 +19494,7 @@
       <c r="O277" s="1"/>
       <c r="P277" s="1"/>
       <c r="Q277" s="1"/>
-      <c r="R277" s="1"/>
+      <c r="R277" s="14"/>
       <c r="S277" s="1"/>
       <c r="T277" s="1"/>
       <c r="U277" s="1"/>
@@ -19459,7 +19546,7 @@
       <c r="O278" s="1"/>
       <c r="P278" s="1"/>
       <c r="Q278" s="1"/>
-      <c r="R278" s="1"/>
+      <c r="R278" s="14"/>
       <c r="S278" s="1"/>
       <c r="T278" s="1"/>
       <c r="U278" s="1"/>
@@ -19511,7 +19598,7 @@
       <c r="O279" s="1"/>
       <c r="P279" s="1"/>
       <c r="Q279" s="1"/>
-      <c r="R279" s="1"/>
+      <c r="R279" s="14"/>
       <c r="S279" s="1"/>
       <c r="T279" s="1"/>
       <c r="U279" s="1"/>
@@ -19563,7 +19650,7 @@
       <c r="O280" s="1"/>
       <c r="P280" s="1"/>
       <c r="Q280" s="1"/>
-      <c r="R280" s="1"/>
+      <c r="R280" s="14"/>
       <c r="S280" s="1"/>
       <c r="T280" s="1"/>
       <c r="U280" s="1"/>
@@ -19615,7 +19702,7 @@
       <c r="O281" s="1"/>
       <c r="P281" s="1"/>
       <c r="Q281" s="1"/>
-      <c r="R281" s="1"/>
+      <c r="R281" s="14"/>
       <c r="S281" s="1"/>
       <c r="T281" s="1"/>
       <c r="U281" s="1"/>
@@ -19667,7 +19754,7 @@
       <c r="O282" s="1"/>
       <c r="P282" s="1"/>
       <c r="Q282" s="1"/>
-      <c r="R282" s="1"/>
+      <c r="R282" s="14"/>
       <c r="S282" s="1"/>
       <c r="T282" s="1"/>
       <c r="U282" s="1"/>
@@ -19719,7 +19806,7 @@
       <c r="O283" s="1"/>
       <c r="P283" s="1"/>
       <c r="Q283" s="1"/>
-      <c r="R283" s="1"/>
+      <c r="R283" s="14"/>
       <c r="S283" s="1"/>
       <c r="T283" s="1"/>
       <c r="U283" s="1"/>
@@ -19771,7 +19858,7 @@
       <c r="O284" s="1"/>
       <c r="P284" s="1"/>
       <c r="Q284" s="1"/>
-      <c r="R284" s="1"/>
+      <c r="R284" s="14"/>
       <c r="S284" s="1"/>
       <c r="T284" s="1"/>
       <c r="U284" s="1"/>
@@ -19823,7 +19910,7 @@
       <c r="O285" s="1"/>
       <c r="P285" s="1"/>
       <c r="Q285" s="1"/>
-      <c r="R285" s="1"/>
+      <c r="R285" s="14"/>
       <c r="S285" s="1"/>
       <c r="T285" s="1"/>
       <c r="U285" s="1"/>
@@ -19875,7 +19962,7 @@
       <c r="O286" s="1"/>
       <c r="P286" s="1"/>
       <c r="Q286" s="1"/>
-      <c r="R286" s="1"/>
+      <c r="R286" s="14"/>
       <c r="S286" s="1"/>
       <c r="T286" s="1"/>
       <c r="U286" s="1"/>
@@ -19927,7 +20014,7 @@
       <c r="O287" s="1"/>
       <c r="P287" s="1"/>
       <c r="Q287" s="1"/>
-      <c r="R287" s="1"/>
+      <c r="R287" s="14"/>
       <c r="S287" s="1"/>
       <c r="T287" s="1"/>
       <c r="U287" s="1"/>
@@ -19979,7 +20066,7 @@
       <c r="O288" s="1"/>
       <c r="P288" s="1"/>
       <c r="Q288" s="1"/>
-      <c r="R288" s="1"/>
+      <c r="R288" s="14"/>
       <c r="S288" s="1"/>
       <c r="T288" s="1"/>
       <c r="U288" s="1"/>
@@ -20031,7 +20118,7 @@
       <c r="O289" s="1"/>
       <c r="P289" s="1"/>
       <c r="Q289" s="1"/>
-      <c r="R289" s="1"/>
+      <c r="R289" s="14"/>
       <c r="S289" s="1"/>
       <c r="T289" s="1"/>
       <c r="U289" s="1"/>
@@ -20083,7 +20170,7 @@
       <c r="O290" s="1"/>
       <c r="P290" s="1"/>
       <c r="Q290" s="1"/>
-      <c r="R290" s="1"/>
+      <c r="R290" s="14"/>
       <c r="S290" s="1"/>
       <c r="T290" s="1"/>
       <c r="U290" s="1"/>
@@ -20135,7 +20222,7 @@
       <c r="O291" s="1"/>
       <c r="P291" s="1"/>
       <c r="Q291" s="1"/>
-      <c r="R291" s="1"/>
+      <c r="R291" s="14"/>
       <c r="S291" s="1"/>
       <c r="T291" s="1"/>
       <c r="U291" s="1"/>
@@ -20187,7 +20274,7 @@
       <c r="O292" s="1"/>
       <c r="P292" s="1"/>
       <c r="Q292" s="1"/>
-      <c r="R292" s="1"/>
+      <c r="R292" s="14"/>
       <c r="S292" s="1"/>
       <c r="T292" s="1"/>
       <c r="U292" s="1"/>
@@ -20239,7 +20326,7 @@
       <c r="O293" s="1"/>
       <c r="P293" s="1"/>
       <c r="Q293" s="1"/>
-      <c r="R293" s="1"/>
+      <c r="R293" s="14"/>
       <c r="S293" s="1"/>
       <c r="T293" s="1"/>
       <c r="U293" s="1"/>
@@ -20291,7 +20378,7 @@
       <c r="O294" s="1"/>
       <c r="P294" s="1"/>
       <c r="Q294" s="1"/>
-      <c r="R294" s="1"/>
+      <c r="R294" s="14"/>
       <c r="S294" s="1"/>
       <c r="T294" s="1"/>
       <c r="U294" s="1"/>
@@ -20343,7 +20430,7 @@
       <c r="O295" s="1"/>
       <c r="P295" s="1"/>
       <c r="Q295" s="1"/>
-      <c r="R295" s="1"/>
+      <c r="R295" s="14"/>
       <c r="S295" s="1"/>
       <c r="T295" s="1"/>
       <c r="U295" s="1"/>
@@ -20395,7 +20482,7 @@
       <c r="O296" s="1"/>
       <c r="P296" s="1"/>
       <c r="Q296" s="1"/>
-      <c r="R296" s="1"/>
+      <c r="R296" s="14"/>
       <c r="S296" s="1"/>
       <c r="T296" s="1"/>
       <c r="U296" s="1"/>
@@ -20447,7 +20534,7 @@
       <c r="O297" s="1"/>
       <c r="P297" s="1"/>
       <c r="Q297" s="1"/>
-      <c r="R297" s="1"/>
+      <c r="R297" s="14"/>
       <c r="S297" s="1"/>
       <c r="T297" s="1"/>
       <c r="U297" s="1"/>
@@ -20499,7 +20586,7 @@
       <c r="O298" s="1"/>
       <c r="P298" s="1"/>
       <c r="Q298" s="1"/>
-      <c r="R298" s="1"/>
+      <c r="R298" s="14"/>
       <c r="S298" s="1"/>
       <c r="T298" s="1"/>
       <c r="U298" s="1"/>
@@ -20551,7 +20638,7 @@
       <c r="O299" s="1"/>
       <c r="P299" s="1"/>
       <c r="Q299" s="1"/>
-      <c r="R299" s="1"/>
+      <c r="R299" s="14"/>
       <c r="S299" s="1"/>
       <c r="T299" s="1"/>
       <c r="U299" s="1"/>
@@ -20603,7 +20690,7 @@
       <c r="O300" s="1"/>
       <c r="P300" s="1"/>
       <c r="Q300" s="1"/>
-      <c r="R300" s="1"/>
+      <c r="R300" s="14"/>
       <c r="S300" s="1"/>
       <c r="T300" s="1"/>
       <c r="U300" s="1"/>
@@ -20655,7 +20742,7 @@
       <c r="O301" s="1"/>
       <c r="P301" s="1"/>
       <c r="Q301" s="1"/>
-      <c r="R301" s="1"/>
+      <c r="R301" s="14"/>
       <c r="S301" s="1"/>
       <c r="T301" s="1"/>
       <c r="U301" s="1"/>
@@ -20707,7 +20794,7 @@
       <c r="O302" s="1"/>
       <c r="P302" s="1"/>
       <c r="Q302" s="1"/>
-      <c r="R302" s="1"/>
+      <c r="R302" s="14"/>
       <c r="S302" s="1"/>
       <c r="T302" s="1"/>
       <c r="U302" s="1"/>
@@ -20759,7 +20846,7 @@
       <c r="O303" s="1"/>
       <c r="P303" s="1"/>
       <c r="Q303" s="1"/>
-      <c r="R303" s="1"/>
+      <c r="R303" s="14"/>
       <c r="S303" s="1"/>
       <c r="T303" s="1"/>
       <c r="U303" s="1"/>
@@ -20811,7 +20898,7 @@
       <c r="O304" s="1"/>
       <c r="P304" s="1"/>
       <c r="Q304" s="1"/>
-      <c r="R304" s="1"/>
+      <c r="R304" s="14"/>
       <c r="S304" s="1"/>
       <c r="T304" s="1"/>
       <c r="U304" s="1"/>
@@ -20863,7 +20950,7 @@
       <c r="O305" s="1"/>
       <c r="P305" s="1"/>
       <c r="Q305" s="1"/>
-      <c r="R305" s="1"/>
+      <c r="R305" s="14"/>
       <c r="S305" s="1"/>
       <c r="T305" s="1"/>
       <c r="U305" s="1"/>
@@ -20915,7 +21002,7 @@
       <c r="O306" s="1"/>
       <c r="P306" s="1"/>
       <c r="Q306" s="1"/>
-      <c r="R306" s="1"/>
+      <c r="R306" s="14"/>
       <c r="S306" s="1"/>
       <c r="T306" s="1"/>
       <c r="U306" s="1"/>
@@ -20967,7 +21054,7 @@
       <c r="O307" s="1"/>
       <c r="P307" s="1"/>
       <c r="Q307" s="1"/>
-      <c r="R307" s="1"/>
+      <c r="R307" s="14"/>
       <c r="S307" s="1"/>
       <c r="T307" s="1"/>
       <c r="U307" s="1"/>
@@ -21019,7 +21106,7 @@
       <c r="O308" s="1"/>
       <c r="P308" s="1"/>
       <c r="Q308" s="1"/>
-      <c r="R308" s="1"/>
+      <c r="R308" s="14"/>
       <c r="S308" s="1"/>
       <c r="T308" s="1"/>
       <c r="U308" s="1"/>
@@ -21071,7 +21158,7 @@
       <c r="O309" s="1"/>
       <c r="P309" s="1"/>
       <c r="Q309" s="1"/>
-      <c r="R309" s="1"/>
+      <c r="R309" s="14"/>
       <c r="S309" s="1"/>
       <c r="T309" s="1"/>
       <c r="U309" s="1"/>
@@ -21123,7 +21210,7 @@
       <c r="O310" s="1"/>
       <c r="P310" s="1"/>
       <c r="Q310" s="1"/>
-      <c r="R310" s="1"/>
+      <c r="R310" s="14"/>
       <c r="S310" s="1"/>
       <c r="T310" s="1"/>
       <c r="U310" s="1"/>
@@ -21175,7 +21262,7 @@
       <c r="O311" s="1"/>
       <c r="P311" s="1"/>
       <c r="Q311" s="1"/>
-      <c r="R311" s="1"/>
+      <c r="R311" s="14"/>
       <c r="S311" s="1"/>
       <c r="T311" s="1"/>
       <c r="U311" s="1"/>
@@ -21227,7 +21314,7 @@
       <c r="O312" s="1"/>
       <c r="P312" s="1"/>
       <c r="Q312" s="1"/>
-      <c r="R312" s="1"/>
+      <c r="R312" s="14"/>
       <c r="S312" s="1"/>
       <c r="T312" s="1"/>
       <c r="U312" s="1"/>
@@ -21279,7 +21366,7 @@
       <c r="O313" s="1"/>
       <c r="P313" s="1"/>
       <c r="Q313" s="1"/>
-      <c r="R313" s="1"/>
+      <c r="R313" s="14"/>
       <c r="S313" s="1"/>
       <c r="T313" s="1"/>
       <c r="U313" s="1"/>
@@ -21331,7 +21418,7 @@
       <c r="O314" s="1"/>
       <c r="P314" s="1"/>
       <c r="Q314" s="1"/>
-      <c r="R314" s="1"/>
+      <c r="R314" s="14"/>
       <c r="S314" s="1"/>
       <c r="T314" s="1"/>
       <c r="U314" s="1"/>
@@ -21383,7 +21470,7 @@
       <c r="O315" s="1"/>
       <c r="P315" s="1"/>
       <c r="Q315" s="1"/>
-      <c r="R315" s="1"/>
+      <c r="R315" s="14"/>
       <c r="S315" s="1"/>
       <c r="T315" s="1"/>
       <c r="U315" s="1"/>
@@ -21435,7 +21522,7 @@
       <c r="O316" s="1"/>
       <c r="P316" s="1"/>
       <c r="Q316" s="1"/>
-      <c r="R316" s="1"/>
+      <c r="R316" s="14"/>
       <c r="S316" s="1"/>
       <c r="T316" s="1"/>
       <c r="U316" s="1"/>
@@ -21487,7 +21574,7 @@
       <c r="O317" s="1"/>
       <c r="P317" s="1"/>
       <c r="Q317" s="1"/>
-      <c r="R317" s="1"/>
+      <c r="R317" s="14"/>
       <c r="S317" s="1"/>
       <c r="T317" s="1"/>
       <c r="U317" s="1"/>
@@ -21539,7 +21626,7 @@
       <c r="O318" s="1"/>
       <c r="P318" s="1"/>
       <c r="Q318" s="1"/>
-      <c r="R318" s="1"/>
+      <c r="R318" s="14"/>
       <c r="S318" s="1"/>
       <c r="T318" s="1"/>
       <c r="U318" s="1"/>
@@ -21591,7 +21678,7 @@
       <c r="O319" s="1"/>
       <c r="P319" s="1"/>
       <c r="Q319" s="1"/>
-      <c r="R319" s="1"/>
+      <c r="R319" s="14"/>
       <c r="S319" s="1"/>
       <c r="T319" s="1"/>
       <c r="U319" s="1"/>
@@ -21643,7 +21730,7 @@
       <c r="O320" s="1"/>
       <c r="P320" s="1"/>
       <c r="Q320" s="1"/>
-      <c r="R320" s="1"/>
+      <c r="R320" s="14"/>
       <c r="S320" s="1"/>
       <c r="T320" s="1"/>
       <c r="U320" s="1"/>
@@ -21695,7 +21782,7 @@
       <c r="O321" s="1"/>
       <c r="P321" s="1"/>
       <c r="Q321" s="1"/>
-      <c r="R321" s="1"/>
+      <c r="R321" s="14"/>
       <c r="S321" s="1"/>
       <c r="T321" s="1"/>
       <c r="U321" s="1"/>
@@ -21747,7 +21834,7 @@
       <c r="O322" s="1"/>
       <c r="P322" s="1"/>
       <c r="Q322" s="1"/>
-      <c r="R322" s="1"/>
+      <c r="R322" s="14"/>
       <c r="S322" s="1"/>
       <c r="T322" s="1"/>
       <c r="U322" s="1"/>
@@ -21799,7 +21886,7 @@
       <c r="O323" s="1"/>
       <c r="P323" s="1"/>
       <c r="Q323" s="1"/>
-      <c r="R323" s="1"/>
+      <c r="R323" s="14"/>
       <c r="S323" s="1"/>
       <c r="T323" s="1"/>
       <c r="U323" s="1"/>
@@ -21851,7 +21938,7 @@
       <c r="O324" s="1"/>
       <c r="P324" s="1"/>
       <c r="Q324" s="1"/>
-      <c r="R324" s="1"/>
+      <c r="R324" s="14"/>
       <c r="S324" s="1"/>
       <c r="T324" s="1"/>
       <c r="U324" s="1"/>
@@ -21903,7 +21990,7 @@
       <c r="O325" s="1"/>
       <c r="P325" s="1"/>
       <c r="Q325" s="1"/>
-      <c r="R325" s="1"/>
+      <c r="R325" s="14"/>
       <c r="S325" s="1"/>
       <c r="T325" s="1"/>
       <c r="U325" s="1"/>
@@ -21955,7 +22042,7 @@
       <c r="O326" s="1"/>
       <c r="P326" s="1"/>
       <c r="Q326" s="1"/>
-      <c r="R326" s="1"/>
+      <c r="R326" s="14"/>
       <c r="S326" s="1"/>
       <c r="T326" s="1"/>
       <c r="U326" s="1"/>
@@ -22007,7 +22094,7 @@
       <c r="O327" s="1"/>
       <c r="P327" s="1"/>
       <c r="Q327" s="1"/>
-      <c r="R327" s="1"/>
+      <c r="R327" s="14"/>
       <c r="S327" s="1"/>
       <c r="T327" s="1"/>
       <c r="U327" s="1"/>
@@ -22059,7 +22146,7 @@
       <c r="O328" s="1"/>
       <c r="P328" s="1"/>
       <c r="Q328" s="1"/>
-      <c r="R328" s="1"/>
+      <c r="R328" s="14"/>
       <c r="S328" s="1"/>
       <c r="T328" s="1"/>
       <c r="U328" s="1"/>
@@ -22111,7 +22198,7 @@
       <c r="O329" s="1"/>
       <c r="P329" s="1"/>
       <c r="Q329" s="1"/>
-      <c r="R329" s="1"/>
+      <c r="R329" s="14"/>
       <c r="S329" s="1"/>
       <c r="T329" s="1"/>
       <c r="U329" s="1"/>
@@ -22163,7 +22250,7 @@
       <c r="O330" s="1"/>
       <c r="P330" s="1"/>
       <c r="Q330" s="1"/>
-      <c r="R330" s="1"/>
+      <c r="R330" s="14"/>
       <c r="S330" s="1"/>
       <c r="T330" s="1"/>
       <c r="U330" s="1"/>
@@ -22215,7 +22302,7 @@
       <c r="O331" s="1"/>
       <c r="P331" s="1"/>
       <c r="Q331" s="1"/>
-      <c r="R331" s="1"/>
+      <c r="R331" s="14"/>
       <c r="S331" s="1"/>
       <c r="T331" s="1"/>
       <c r="U331" s="1"/>
@@ -22267,7 +22354,7 @@
       <c r="O332" s="1"/>
       <c r="P332" s="1"/>
       <c r="Q332" s="1"/>
-      <c r="R332" s="1"/>
+      <c r="R332" s="14"/>
       <c r="S332" s="1"/>
       <c r="T332" s="1"/>
       <c r="U332" s="1"/>
@@ -22319,7 +22406,7 @@
       <c r="O333" s="1"/>
       <c r="P333" s="1"/>
       <c r="Q333" s="1"/>
-      <c r="R333" s="1"/>
+      <c r="R333" s="14"/>
       <c r="S333" s="1"/>
       <c r="T333" s="1"/>
       <c r="U333" s="1"/>
@@ -22371,7 +22458,7 @@
       <c r="O334" s="1"/>
       <c r="P334" s="1"/>
       <c r="Q334" s="1"/>
-      <c r="R334" s="1"/>
+      <c r="R334" s="14"/>
       <c r="S334" s="1"/>
       <c r="T334" s="1"/>
       <c r="U334" s="1"/>
@@ -22423,7 +22510,7 @@
       <c r="O335" s="1"/>
       <c r="P335" s="1"/>
       <c r="Q335" s="1"/>
-      <c r="R335" s="1"/>
+      <c r="R335" s="14"/>
       <c r="S335" s="1"/>
       <c r="T335" s="1"/>
       <c r="U335" s="1"/>
@@ -22475,7 +22562,7 @@
       <c r="O336" s="1"/>
       <c r="P336" s="1"/>
       <c r="Q336" s="1"/>
-      <c r="R336" s="1"/>
+      <c r="R336" s="14"/>
       <c r="S336" s="1"/>
       <c r="T336" s="1"/>
       <c r="U336" s="1"/>
@@ -22527,7 +22614,7 @@
       <c r="O337" s="1"/>
       <c r="P337" s="1"/>
       <c r="Q337" s="1"/>
-      <c r="R337" s="1"/>
+      <c r="R337" s="14"/>
       <c r="S337" s="1"/>
       <c r="T337" s="1"/>
       <c r="U337" s="1"/>
@@ -22579,7 +22666,7 @@
       <c r="O338" s="1"/>
       <c r="P338" s="1"/>
       <c r="Q338" s="1"/>
-      <c r="R338" s="1"/>
+      <c r="R338" s="14"/>
       <c r="S338" s="1"/>
       <c r="T338" s="1"/>
       <c r="U338" s="1"/>
@@ -22631,7 +22718,7 @@
       <c r="O339" s="1"/>
       <c r="P339" s="1"/>
       <c r="Q339" s="1"/>
-      <c r="R339" s="1"/>
+      <c r="R339" s="14"/>
       <c r="S339" s="1"/>
       <c r="T339" s="1"/>
       <c r="U339" s="1"/>
@@ -22683,7 +22770,7 @@
       <c r="O340" s="1"/>
       <c r="P340" s="1"/>
       <c r="Q340" s="1"/>
-      <c r="R340" s="1"/>
+      <c r="R340" s="14"/>
       <c r="S340" s="1"/>
       <c r="T340" s="1"/>
       <c r="U340" s="1"/>
@@ -22735,7 +22822,7 @@
       <c r="O341" s="1"/>
       <c r="P341" s="1"/>
       <c r="Q341" s="1"/>
-      <c r="R341" s="1"/>
+      <c r="R341" s="14"/>
       <c r="S341" s="1"/>
       <c r="T341" s="1"/>
       <c r="U341" s="1"/>
@@ -22787,7 +22874,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
       <c r="Q342" s="1"/>
-      <c r="R342" s="1"/>
+      <c r="R342" s="14"/>
       <c r="S342" s="1"/>
       <c r="T342" s="1"/>
       <c r="U342" s="1"/>
@@ -22839,7 +22926,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
       <c r="Q343" s="1"/>
-      <c r="R343" s="1"/>
+      <c r="R343" s="14"/>
       <c r="S343" s="1"/>
       <c r="T343" s="1"/>
       <c r="U343" s="1"/>
@@ -22891,7 +22978,7 @@
       <c r="O344" s="1"/>
       <c r="P344" s="1"/>
       <c r="Q344" s="1"/>
-      <c r="R344" s="1"/>
+      <c r="R344" s="14"/>
       <c r="S344" s="1"/>
       <c r="T344" s="1"/>
       <c r="U344" s="1"/>
@@ -22943,7 +23030,7 @@
       <c r="O345" s="1"/>
       <c r="P345" s="1"/>
       <c r="Q345" s="1"/>
-      <c r="R345" s="1"/>
+      <c r="R345" s="14"/>
       <c r="S345" s="1"/>
       <c r="T345" s="1"/>
       <c r="U345" s="1"/>
@@ -22995,7 +23082,7 @@
       <c r="O346" s="1"/>
       <c r="P346" s="1"/>
       <c r="Q346" s="1"/>
-      <c r="R346" s="1"/>
+      <c r="R346" s="14"/>
       <c r="S346" s="1"/>
       <c r="T346" s="1"/>
       <c r="U346" s="1"/>
@@ -23047,7 +23134,7 @@
       <c r="O347" s="1"/>
       <c r="P347" s="1"/>
       <c r="Q347" s="1"/>
-      <c r="R347" s="1"/>
+      <c r="R347" s="14"/>
       <c r="S347" s="1"/>
       <c r="T347" s="1"/>
       <c r="U347" s="1"/>
@@ -23099,7 +23186,7 @@
       <c r="O348" s="1"/>
       <c r="P348" s="1"/>
       <c r="Q348" s="1"/>
-      <c r="R348" s="1"/>
+      <c r="R348" s="14"/>
       <c r="S348" s="1"/>
       <c r="T348" s="1"/>
       <c r="U348" s="1"/>
@@ -23151,7 +23238,7 @@
       <c r="O349" s="1"/>
       <c r="P349" s="1"/>
       <c r="Q349" s="1"/>
-      <c r="R349" s="1"/>
+      <c r="R349" s="14"/>
       <c r="S349" s="1"/>
       <c r="T349" s="1"/>
       <c r="U349" s="1"/>
@@ -23203,7 +23290,7 @@
       <c r="O350" s="1"/>
       <c r="P350" s="1"/>
       <c r="Q350" s="1"/>
-      <c r="R350" s="1"/>
+      <c r="R350" s="14"/>
       <c r="S350" s="1"/>
       <c r="T350" s="1"/>
       <c r="U350" s="1"/>
@@ -23255,7 +23342,7 @@
       <c r="O351" s="1"/>
       <c r="P351" s="1"/>
       <c r="Q351" s="1"/>
-      <c r="R351" s="1"/>
+      <c r="R351" s="14"/>
       <c r="S351" s="1"/>
       <c r="T351" s="1"/>
       <c r="U351" s="1"/>
@@ -23307,7 +23394,7 @@
       <c r="O352" s="1"/>
       <c r="P352" s="1"/>
       <c r="Q352" s="1"/>
-      <c r="R352" s="1"/>
+      <c r="R352" s="14"/>
       <c r="S352" s="1"/>
       <c r="T352" s="1"/>
       <c r="U352" s="1"/>
@@ -23359,7 +23446,7 @@
       <c r="O353" s="1"/>
       <c r="P353" s="1"/>
       <c r="Q353" s="1"/>
-      <c r="R353" s="1"/>
+      <c r="R353" s="14"/>
       <c r="S353" s="1"/>
       <c r="T353" s="1"/>
       <c r="U353" s="1"/>
@@ -23411,7 +23498,7 @@
       <c r="O354" s="1"/>
       <c r="P354" s="1"/>
       <c r="Q354" s="1"/>
-      <c r="R354" s="1"/>
+      <c r="R354" s="14"/>
       <c r="S354" s="1"/>
       <c r="T354" s="1"/>
       <c r="U354" s="1"/>
@@ -23463,7 +23550,7 @@
       <c r="O355" s="1"/>
       <c r="P355" s="1"/>
       <c r="Q355" s="1"/>
-      <c r="R355" s="1"/>
+      <c r="R355" s="14"/>
       <c r="S355" s="1"/>
       <c r="T355" s="1"/>
       <c r="U355" s="1"/>
@@ -23515,7 +23602,7 @@
       <c r="O356" s="1"/>
       <c r="P356" s="1"/>
       <c r="Q356" s="1"/>
-      <c r="R356" s="1"/>
+      <c r="R356" s="14"/>
       <c r="S356" s="1"/>
       <c r="T356" s="1"/>
       <c r="U356" s="1"/>
@@ -23567,7 +23654,7 @@
       <c r="O357" s="1"/>
       <c r="P357" s="1"/>
       <c r="Q357" s="1"/>
-      <c r="R357" s="1"/>
+      <c r="R357" s="14"/>
       <c r="S357" s="1"/>
       <c r="T357" s="1"/>
       <c r="U357" s="1"/>
@@ -23619,7 +23706,7 @@
       <c r="O358" s="1"/>
       <c r="P358" s="1"/>
       <c r="Q358" s="1"/>
-      <c r="R358" s="1"/>
+      <c r="R358" s="14"/>
       <c r="S358" s="1"/>
       <c r="T358" s="1"/>
       <c r="U358" s="1"/>
@@ -23671,7 +23758,7 @@
       <c r="O359" s="1"/>
       <c r="P359" s="1"/>
       <c r="Q359" s="1"/>
-      <c r="R359" s="1"/>
+      <c r="R359" s="14"/>
       <c r="S359" s="1"/>
       <c r="T359" s="1"/>
       <c r="U359" s="1"/>
@@ -23723,7 +23810,7 @@
       <c r="O360" s="1"/>
       <c r="P360" s="1"/>
       <c r="Q360" s="1"/>
-      <c r="R360" s="1"/>
+      <c r="R360" s="14"/>
       <c r="S360" s="1"/>
       <c r="T360" s="1"/>
       <c r="U360" s="1"/>
@@ -23775,7 +23862,7 @@
       <c r="O361" s="1"/>
       <c r="P361" s="1"/>
       <c r="Q361" s="1"/>
-      <c r="R361" s="1"/>
+      <c r="R361" s="14"/>
       <c r="S361" s="1"/>
       <c r="T361" s="1"/>
       <c r="U361" s="1"/>
@@ -23827,7 +23914,7 @@
       <c r="O362" s="1"/>
       <c r="P362" s="1"/>
       <c r="Q362" s="1"/>
-      <c r="R362" s="1"/>
+      <c r="R362" s="14"/>
       <c r="S362" s="1"/>
       <c r="T362" s="1"/>
       <c r="U362" s="1"/>
@@ -23879,7 +23966,7 @@
       <c r="O363" s="1"/>
       <c r="P363" s="1"/>
       <c r="Q363" s="1"/>
-      <c r="R363" s="1"/>
+      <c r="R363" s="14"/>
       <c r="S363" s="1"/>
       <c r="T363" s="1"/>
       <c r="U363" s="1"/>
@@ -23931,7 +24018,7 @@
       <c r="O364" s="1"/>
       <c r="P364" s="1"/>
       <c r="Q364" s="1"/>
-      <c r="R364" s="1"/>
+      <c r="R364" s="14"/>
       <c r="S364" s="1"/>
       <c r="T364" s="1"/>
       <c r="U364" s="1"/>
@@ -23983,7 +24070,7 @@
       <c r="O365" s="1"/>
       <c r="P365" s="1"/>
       <c r="Q365" s="1"/>
-      <c r="R365" s="1"/>
+      <c r="R365" s="14"/>
       <c r="S365" s="1"/>
       <c r="T365" s="1"/>
       <c r="U365" s="1"/>
@@ -24035,7 +24122,7 @@
       <c r="O366" s="1"/>
       <c r="P366" s="1"/>
       <c r="Q366" s="1"/>
-      <c r="R366" s="1"/>
+      <c r="R366" s="14"/>
       <c r="S366" s="1"/>
       <c r="T366" s="1"/>
       <c r="U366" s="1"/>
@@ -24087,7 +24174,7 @@
       <c r="O367" s="1"/>
       <c r="P367" s="1"/>
       <c r="Q367" s="1"/>
-      <c r="R367" s="1"/>
+      <c r="R367" s="14"/>
       <c r="S367" s="1"/>
       <c r="T367" s="1"/>
       <c r="U367" s="1"/>
@@ -24139,7 +24226,7 @@
       <c r="O368" s="1"/>
       <c r="P368" s="1"/>
       <c r="Q368" s="1"/>
-      <c r="R368" s="1"/>
+      <c r="R368" s="14"/>
       <c r="S368" s="1"/>
       <c r="T368" s="1"/>
       <c r="U368" s="1"/>
@@ -24191,7 +24278,7 @@
       <c r="O369" s="1"/>
       <c r="P369" s="1"/>
       <c r="Q369" s="1"/>
-      <c r="R369" s="1"/>
+      <c r="R369" s="14"/>
       <c r="S369" s="1"/>
       <c r="T369" s="1"/>
       <c r="U369" s="1"/>
@@ -24243,7 +24330,7 @@
       <c r="O370" s="1"/>
       <c r="P370" s="1"/>
       <c r="Q370" s="1"/>
-      <c r="R370" s="1"/>
+      <c r="R370" s="14"/>
       <c r="S370" s="1"/>
       <c r="T370" s="1"/>
       <c r="U370" s="1"/>
@@ -24295,7 +24382,7 @@
       <c r="O371" s="1"/>
       <c r="P371" s="1"/>
       <c r="Q371" s="1"/>
-      <c r="R371" s="1"/>
+      <c r="R371" s="14"/>
       <c r="S371" s="1"/>
       <c r="T371" s="1"/>
       <c r="U371" s="1"/>
@@ -24347,7 +24434,7 @@
       <c r="O372" s="1"/>
       <c r="P372" s="1"/>
       <c r="Q372" s="1"/>
-      <c r="R372" s="1"/>
+      <c r="R372" s="14"/>
       <c r="S372" s="1"/>
       <c r="T372" s="1"/>
       <c r="U372" s="1"/>
@@ -24399,7 +24486,7 @@
       <c r="O373" s="1"/>
       <c r="P373" s="1"/>
       <c r="Q373" s="1"/>
-      <c r="R373" s="1"/>
+      <c r="R373" s="14"/>
       <c r="S373" s="1"/>
       <c r="T373" s="1"/>
       <c r="U373" s="1"/>
@@ -24451,7 +24538,7 @@
       <c r="O374" s="1"/>
       <c r="P374" s="1"/>
       <c r="Q374" s="1"/>
-      <c r="R374" s="1"/>
+      <c r="R374" s="14"/>
       <c r="S374" s="1"/>
       <c r="T374" s="1"/>
       <c r="U374" s="1"/>
@@ -24503,7 +24590,7 @@
       <c r="O375" s="1"/>
       <c r="P375" s="1"/>
       <c r="Q375" s="1"/>
-      <c r="R375" s="1"/>
+      <c r="R375" s="14"/>
       <c r="S375" s="1"/>
       <c r="T375" s="1"/>
       <c r="U375" s="1"/>
@@ -24555,7 +24642,7 @@
       <c r="O376" s="1"/>
       <c r="P376" s="1"/>
       <c r="Q376" s="1"/>
-      <c r="R376" s="1"/>
+      <c r="R376" s="14"/>
       <c r="S376" s="1"/>
       <c r="T376" s="1"/>
       <c r="U376" s="1"/>
@@ -24607,7 +24694,7 @@
       <c r="O377" s="1"/>
       <c r="P377" s="1"/>
       <c r="Q377" s="1"/>
-      <c r="R377" s="1"/>
+      <c r="R377" s="14"/>
       <c r="S377" s="1"/>
       <c r="T377" s="1"/>
       <c r="U377" s="1"/>
@@ -24659,7 +24746,7 @@
       <c r="O378" s="1"/>
       <c r="P378" s="1"/>
       <c r="Q378" s="1"/>
-      <c r="R378" s="1"/>
+      <c r="R378" s="14"/>
       <c r="S378" s="1"/>
       <c r="T378" s="1"/>
       <c r="U378" s="1"/>
@@ -24711,7 +24798,7 @@
       <c r="O379" s="1"/>
       <c r="P379" s="1"/>
       <c r="Q379" s="1"/>
-      <c r="R379" s="1"/>
+      <c r="R379" s="14"/>
       <c r="S379" s="1"/>
       <c r="T379" s="1"/>
       <c r="U379" s="1"/>
@@ -24763,7 +24850,7 @@
       <c r="O380" s="1"/>
       <c r="P380" s="1"/>
       <c r="Q380" s="1"/>
-      <c r="R380" s="1"/>
+      <c r="R380" s="14"/>
       <c r="S380" s="1"/>
       <c r="T380" s="1"/>
       <c r="U380" s="1"/>
@@ -24815,7 +24902,7 @@
       <c r="O381" s="1"/>
       <c r="P381" s="1"/>
       <c r="Q381" s="1"/>
-      <c r="R381" s="1"/>
+      <c r="R381" s="14"/>
       <c r="S381" s="1"/>
       <c r="T381" s="1"/>
       <c r="U381" s="1"/>
@@ -24867,7 +24954,7 @@
       <c r="O382" s="1"/>
       <c r="P382" s="1"/>
       <c r="Q382" s="1"/>
-      <c r="R382" s="1"/>
+      <c r="R382" s="14"/>
       <c r="S382" s="1"/>
       <c r="T382" s="1"/>
       <c r="U382" s="1"/>
@@ -24919,7 +25006,7 @@
       <c r="O383" s="1"/>
       <c r="P383" s="1"/>
       <c r="Q383" s="1"/>
-      <c r="R383" s="1"/>
+      <c r="R383" s="14"/>
       <c r="S383" s="1"/>
       <c r="T383" s="1"/>
       <c r="U383" s="1"/>
@@ -24971,7 +25058,7 @@
       <c r="O384" s="1"/>
       <c r="P384" s="1"/>
       <c r="Q384" s="1"/>
-      <c r="R384" s="1"/>
+      <c r="R384" s="14"/>
       <c r="S384" s="1"/>
       <c r="T384" s="1"/>
       <c r="U384" s="1"/>
@@ -25023,7 +25110,7 @@
       <c r="O385" s="1"/>
       <c r="P385" s="1"/>
       <c r="Q385" s="1"/>
-      <c r="R385" s="1"/>
+      <c r="R385" s="14"/>
       <c r="S385" s="1"/>
       <c r="T385" s="1"/>
       <c r="U385" s="1"/>
@@ -25075,7 +25162,7 @@
       <c r="O386" s="1"/>
       <c r="P386" s="1"/>
       <c r="Q386" s="1"/>
-      <c r="R386" s="1"/>
+      <c r="R386" s="14"/>
       <c r="S386" s="1"/>
       <c r="T386" s="1"/>
       <c r="U386" s="1"/>
@@ -25127,7 +25214,7 @@
       <c r="O387" s="1"/>
       <c r="P387" s="1"/>
       <c r="Q387" s="1"/>
-      <c r="R387" s="1"/>
+      <c r="R387" s="14"/>
       <c r="S387" s="1"/>
       <c r="T387" s="1"/>
       <c r="U387" s="1"/>
@@ -25179,7 +25266,7 @@
       <c r="O388" s="1"/>
       <c r="P388" s="1"/>
       <c r="Q388" s="1"/>
-      <c r="R388" s="1"/>
+      <c r="R388" s="14"/>
       <c r="S388" s="1"/>
       <c r="T388" s="1"/>
       <c r="U388" s="1"/>
@@ -25231,7 +25318,7 @@
       <c r="O389" s="1"/>
       <c r="P389" s="1"/>
       <c r="Q389" s="1"/>
-      <c r="R389" s="1"/>
+      <c r="R389" s="14"/>
       <c r="S389" s="1"/>
       <c r="T389" s="1"/>
       <c r="U389" s="1"/>
@@ -25283,7 +25370,7 @@
       <c r="O390" s="1"/>
       <c r="P390" s="1"/>
       <c r="Q390" s="1"/>
-      <c r="R390" s="1"/>
+      <c r="R390" s="14"/>
       <c r="S390" s="1"/>
       <c r="T390" s="1"/>
       <c r="U390" s="1"/>
@@ -25335,7 +25422,7 @@
       <c r="O391" s="1"/>
       <c r="P391" s="1"/>
       <c r="Q391" s="1"/>
-      <c r="R391" s="1"/>
+      <c r="R391" s="14"/>
       <c r="S391" s="1"/>
       <c r="T391" s="1"/>
       <c r="U391" s="1"/>
@@ -25387,7 +25474,7 @@
       <c r="O392" s="1"/>
       <c r="P392" s="1"/>
       <c r="Q392" s="1"/>
-      <c r="R392" s="1"/>
+      <c r="R392" s="14"/>
       <c r="S392" s="1"/>
       <c r="T392" s="1"/>
       <c r="U392" s="1"/>
@@ -25439,7 +25526,7 @@
       <c r="O393" s="1"/>
       <c r="P393" s="1"/>
       <c r="Q393" s="1"/>
-      <c r="R393" s="1"/>
+      <c r="R393" s="14"/>
       <c r="S393" s="1"/>
       <c r="T393" s="1"/>
       <c r="U393" s="1"/>
@@ -25491,7 +25578,7 @@
       <c r="O394" s="1"/>
       <c r="P394" s="1"/>
       <c r="Q394" s="1"/>
-      <c r="R394" s="1"/>
+      <c r="R394" s="14"/>
       <c r="S394" s="1"/>
       <c r="T394" s="1"/>
       <c r="U394" s="1"/>
@@ -25543,7 +25630,7 @@
       <c r="O395" s="1"/>
       <c r="P395" s="1"/>
       <c r="Q395" s="1"/>
-      <c r="R395" s="1"/>
+      <c r="R395" s="14"/>
       <c r="S395" s="1"/>
       <c r="T395" s="1"/>
       <c r="U395" s="1"/>
@@ -25595,7 +25682,7 @@
       <c r="O396" s="1"/>
       <c r="P396" s="1"/>
       <c r="Q396" s="1"/>
-      <c r="R396" s="1"/>
+      <c r="R396" s="14"/>
       <c r="S396" s="1"/>
       <c r="T396" s="1"/>
       <c r="U396" s="1"/>
@@ -25647,7 +25734,7 @@
       <c r="O397" s="1"/>
       <c r="P397" s="1"/>
       <c r="Q397" s="1"/>
-      <c r="R397" s="1"/>
+      <c r="R397" s="14"/>
       <c r="S397" s="1"/>
       <c r="T397" s="1"/>
       <c r="U397" s="1"/>
@@ -25699,7 +25786,7 @@
       <c r="O398" s="1"/>
       <c r="P398" s="1"/>
       <c r="Q398" s="1"/>
-      <c r="R398" s="1"/>
+      <c r="R398" s="14"/>
       <c r="S398" s="1"/>
       <c r="T398" s="1"/>
       <c r="U398" s="1"/>
@@ -25751,7 +25838,7 @@
       <c r="O399" s="1"/>
       <c r="P399" s="1"/>
       <c r="Q399" s="1"/>
-      <c r="R399" s="1"/>
+      <c r="R399" s="14"/>
       <c r="S399" s="1"/>
       <c r="T399" s="1"/>
       <c r="U399" s="1"/>
@@ -25803,7 +25890,7 @@
       <c r="O400" s="1"/>
       <c r="P400" s="1"/>
       <c r="Q400" s="1"/>
-      <c r="R400" s="1"/>
+      <c r="R400" s="14"/>
       <c r="S400" s="1"/>
       <c r="T400" s="1"/>
       <c r="U400" s="1"/>
@@ -25855,7 +25942,7 @@
       <c r="O401" s="1"/>
       <c r="P401" s="1"/>
       <c r="Q401" s="1"/>
-      <c r="R401" s="1"/>
+      <c r="R401" s="14"/>
       <c r="S401" s="1"/>
       <c r="T401" s="1"/>
       <c r="U401" s="1"/>
@@ -25907,7 +25994,7 @@
       <c r="O402" s="1"/>
       <c r="P402" s="1"/>
       <c r="Q402" s="1"/>
-      <c r="R402" s="1"/>
+      <c r="R402" s="14"/>
       <c r="S402" s="1"/>
       <c r="T402" s="1"/>
       <c r="U402" s="1"/>
@@ -25959,7 +26046,7 @@
       <c r="O403" s="1"/>
       <c r="P403" s="1"/>
       <c r="Q403" s="1"/>
-      <c r="R403" s="1"/>
+      <c r="R403" s="14"/>
       <c r="S403" s="1"/>
       <c r="T403" s="1"/>
       <c r="U403" s="1"/>
@@ -26011,7 +26098,7 @@
       <c r="O404" s="1"/>
       <c r="P404" s="1"/>
       <c r="Q404" s="1"/>
-      <c r="R404" s="1"/>
+      <c r="R404" s="14"/>
       <c r="S404" s="1"/>
       <c r="T404" s="1"/>
       <c r="U404" s="1"/>
@@ -26063,7 +26150,7 @@
       <c r="O405" s="1"/>
       <c r="P405" s="1"/>
       <c r="Q405" s="1"/>
-      <c r="R405" s="1"/>
+      <c r="R405" s="14"/>
       <c r="S405" s="1"/>
       <c r="T405" s="1"/>
       <c r="U405" s="1"/>
@@ -26115,7 +26202,7 @@
       <c r="O406" s="1"/>
       <c r="P406" s="1"/>
       <c r="Q406" s="1"/>
-      <c r="R406" s="1"/>
+      <c r="R406" s="14"/>
       <c r="S406" s="1"/>
       <c r="T406" s="1"/>
       <c r="U406" s="1"/>
@@ -26167,7 +26254,7 @@
       <c r="O407" s="1"/>
       <c r="P407" s="1"/>
       <c r="Q407" s="1"/>
-      <c r="R407" s="1"/>
+      <c r="R407" s="14"/>
       <c r="S407" s="1"/>
       <c r="T407" s="1"/>
       <c r="U407" s="1"/>
@@ -26219,7 +26306,7 @@
       <c r="O408" s="1"/>
       <c r="P408" s="1"/>
       <c r="Q408" s="1"/>
-      <c r="R408" s="1"/>
+      <c r="R408" s="14"/>
       <c r="S408" s="1"/>
       <c r="T408" s="1"/>
       <c r="U408" s="1"/>
@@ -26271,7 +26358,7 @@
       <c r="O409" s="1"/>
       <c r="P409" s="1"/>
       <c r="Q409" s="1"/>
-      <c r="R409" s="1"/>
+      <c r="R409" s="14"/>
       <c r="S409" s="1"/>
       <c r="T409" s="1"/>
       <c r="U409" s="1"/>
@@ -26323,7 +26410,7 @@
       <c r="O410" s="1"/>
       <c r="P410" s="1"/>
       <c r="Q410" s="1"/>
-      <c r="R410" s="1"/>
+      <c r="R410" s="14"/>
       <c r="S410" s="1"/>
       <c r="T410" s="1"/>
       <c r="U410" s="1"/>
@@ -26375,7 +26462,7 @@
       <c r="O411" s="1"/>
       <c r="P411" s="1"/>
       <c r="Q411" s="1"/>
-      <c r="R411" s="1"/>
+      <c r="R411" s="14"/>
       <c r="S411" s="1"/>
       <c r="T411" s="1"/>
       <c r="U411" s="1"/>
@@ -26427,7 +26514,7 @@
       <c r="O412" s="1"/>
       <c r="P412" s="1"/>
       <c r="Q412" s="1"/>
-      <c r="R412" s="1"/>
+      <c r="R412" s="14"/>
       <c r="S412" s="1"/>
       <c r="T412" s="1"/>
       <c r="U412" s="1"/>
@@ -26479,7 +26566,7 @@
       <c r="O413" s="1"/>
       <c r="P413" s="1"/>
       <c r="Q413" s="1"/>
-      <c r="R413" s="1"/>
+      <c r="R413" s="14"/>
       <c r="S413" s="1"/>
       <c r="T413" s="1"/>
       <c r="U413" s="1"/>
@@ -26531,7 +26618,7 @@
       <c r="O414" s="1"/>
       <c r="P414" s="1"/>
       <c r="Q414" s="1"/>
-      <c r="R414" s="1"/>
+      <c r="R414" s="14"/>
       <c r="S414" s="1"/>
       <c r="T414" s="1"/>
       <c r="U414" s="1"/>
@@ -26583,7 +26670,7 @@
       <c r="O415" s="1"/>
       <c r="P415" s="1"/>
       <c r="Q415" s="1"/>
-      <c r="R415" s="1"/>
+      <c r="R415" s="14"/>
       <c r="S415" s="1"/>
       <c r="T415" s="1"/>
       <c r="U415" s="1"/>
@@ -26635,7 +26722,7 @@
       <c r="O416" s="1"/>
       <c r="P416" s="1"/>
       <c r="Q416" s="1"/>
-      <c r="R416" s="1"/>
+      <c r="R416" s="14"/>
       <c r="S416" s="1"/>
       <c r="T416" s="1"/>
       <c r="U416" s="1"/>
@@ -26687,7 +26774,7 @@
       <c r="O417" s="1"/>
       <c r="P417" s="1"/>
       <c r="Q417" s="1"/>
-      <c r="R417" s="1"/>
+      <c r="R417" s="14"/>
       <c r="S417" s="1"/>
       <c r="T417" s="1"/>
       <c r="U417" s="1"/>
@@ -26739,7 +26826,7 @@
       <c r="O418" s="1"/>
       <c r="P418" s="1"/>
       <c r="Q418" s="1"/>
-      <c r="R418" s="1"/>
+      <c r="R418" s="14"/>
       <c r="S418" s="1"/>
       <c r="T418" s="1"/>
       <c r="U418" s="1"/>
@@ -26791,7 +26878,7 @@
       <c r="O419" s="1"/>
       <c r="P419" s="1"/>
       <c r="Q419" s="1"/>
-      <c r="R419" s="1"/>
+      <c r="R419" s="14"/>
       <c r="S419" s="1"/>
       <c r="T419" s="1"/>
       <c r="U419" s="1"/>
@@ -26843,7 +26930,7 @@
       <c r="O420" s="1"/>
       <c r="P420" s="1"/>
       <c r="Q420" s="1"/>
-      <c r="R420" s="1"/>
+      <c r="R420" s="14"/>
       <c r="S420" s="1"/>
       <c r="T420" s="1"/>
       <c r="U420" s="1"/>
@@ -26895,7 +26982,7 @@
       <c r="O421" s="1"/>
       <c r="P421" s="1"/>
       <c r="Q421" s="1"/>
-      <c r="R421" s="1"/>
+      <c r="R421" s="14"/>
       <c r="S421" s="1"/>
       <c r="T421" s="1"/>
       <c r="U421" s="1"/>
@@ -26947,7 +27034,7 @@
       <c r="O422" s="1"/>
       <c r="P422" s="1"/>
       <c r="Q422" s="1"/>
-      <c r="R422" s="1"/>
+      <c r="R422" s="14"/>
       <c r="S422" s="1"/>
       <c r="T422" s="1"/>
       <c r="U422" s="1"/>
@@ -26999,7 +27086,7 @@
       <c r="O423" s="1"/>
       <c r="P423" s="1"/>
       <c r="Q423" s="1"/>
-      <c r="R423" s="1"/>
+      <c r="R423" s="14"/>
       <c r="S423" s="1"/>
       <c r="T423" s="1"/>
       <c r="U423" s="1"/>
@@ -27051,7 +27138,7 @@
       <c r="O424" s="1"/>
       <c r="P424" s="1"/>
       <c r="Q424" s="1"/>
-      <c r="R424" s="1"/>
+      <c r="R424" s="14"/>
       <c r="S424" s="1"/>
       <c r="T424" s="1"/>
       <c r="U424" s="1"/>
@@ -27103,7 +27190,7 @@
       <c r="O425" s="1"/>
       <c r="P425" s="1"/>
       <c r="Q425" s="1"/>
-      <c r="R425" s="1"/>
+      <c r="R425" s="14"/>
       <c r="S425" s="1"/>
       <c r="T425" s="1"/>
       <c r="U425" s="1"/>
@@ -27155,7 +27242,7 @@
       <c r="O426" s="1"/>
       <c r="P426" s="1"/>
       <c r="Q426" s="1"/>
-      <c r="R426" s="1"/>
+      <c r="R426" s="14"/>
       <c r="S426" s="1"/>
       <c r="T426" s="1"/>
       <c r="U426" s="1"/>
@@ -27207,7 +27294,7 @@
       <c r="O427" s="1"/>
       <c r="P427" s="1"/>
       <c r="Q427" s="1"/>
-      <c r="R427" s="1"/>
+      <c r="R427" s="14"/>
       <c r="S427" s="1"/>
       <c r="T427" s="1"/>
       <c r="U427" s="1"/>
@@ -27259,7 +27346,7 @@
       <c r="O428" s="1"/>
       <c r="P428" s="1"/>
       <c r="Q428" s="1"/>
-      <c r="R428" s="1"/>
+      <c r="R428" s="14"/>
       <c r="S428" s="1"/>
       <c r="T428" s="1"/>
       <c r="U428" s="1"/>
@@ -27311,7 +27398,7 @@
       <c r="O429" s="1"/>
       <c r="P429" s="1"/>
       <c r="Q429" s="1"/>
-      <c r="R429" s="1"/>
+      <c r="R429" s="14"/>
       <c r="S429" s="1"/>
       <c r="T429" s="1"/>
       <c r="U429" s="1"/>
@@ -27363,7 +27450,7 @@
       <c r="O430" s="1"/>
       <c r="P430" s="1"/>
       <c r="Q430" s="1"/>
-      <c r="R430" s="1"/>
+      <c r="R430" s="14"/>
       <c r="S430" s="1"/>
       <c r="T430" s="1"/>
       <c r="U430" s="1"/>
@@ -27415,7 +27502,7 @@
       <c r="O431" s="1"/>
       <c r="P431" s="1"/>
       <c r="Q431" s="1"/>
-      <c r="R431" s="1"/>
+      <c r="R431" s="14"/>
       <c r="S431" s="1"/>
       <c r="T431" s="1"/>
       <c r="U431" s="1"/>
@@ -27467,7 +27554,7 @@
       <c r="O432" s="1"/>
       <c r="P432" s="1"/>
       <c r="Q432" s="1"/>
-      <c r="R432" s="1"/>
+      <c r="R432" s="14"/>
       <c r="S432" s="1"/>
       <c r="T432" s="1"/>
       <c r="U432" s="1"/>
@@ -27519,7 +27606,7 @@
       <c r="O433" s="1"/>
       <c r="P433" s="1"/>
       <c r="Q433" s="1"/>
-      <c r="R433" s="1"/>
+      <c r="R433" s="14"/>
       <c r="S433" s="1"/>
       <c r="T433" s="1"/>
       <c r="U433" s="1"/>
@@ -27571,7 +27658,7 @@
       <c r="O434" s="1"/>
       <c r="P434" s="1"/>
       <c r="Q434" s="1"/>
-      <c r="R434" s="1"/>
+      <c r="R434" s="14"/>
       <c r="S434" s="1"/>
       <c r="T434" s="1"/>
       <c r="U434" s="1"/>
@@ -27623,7 +27710,7 @@
       <c r="O435" s="1"/>
       <c r="P435" s="1"/>
       <c r="Q435" s="1"/>
-      <c r="R435" s="1"/>
+      <c r="R435" s="14"/>
       <c r="S435" s="1"/>
       <c r="T435" s="1"/>
       <c r="U435" s="1"/>
@@ -27675,7 +27762,7 @@
       <c r="O436" s="1"/>
       <c r="P436" s="1"/>
       <c r="Q436" s="1"/>
-      <c r="R436" s="1"/>
+      <c r="R436" s="14"/>
       <c r="S436" s="1"/>
       <c r="T436" s="1"/>
       <c r="U436" s="1"/>
@@ -27727,7 +27814,7 @@
       <c r="O437" s="1"/>
       <c r="P437" s="1"/>
       <c r="Q437" s="1"/>
-      <c r="R437" s="1"/>
+      <c r="R437" s="14"/>
       <c r="S437" s="1"/>
       <c r="T437" s="1"/>
       <c r="U437" s="1"/>
@@ -27779,7 +27866,7 @@
       <c r="O438" s="1"/>
       <c r="P438" s="1"/>
       <c r="Q438" s="1"/>
-      <c r="R438" s="1"/>
+      <c r="R438" s="14"/>
       <c r="S438" s="1"/>
       <c r="T438" s="1"/>
       <c r="U438" s="1"/>
@@ -27831,7 +27918,7 @@
       <c r="O439" s="1"/>
       <c r="P439" s="1"/>
       <c r="Q439" s="1"/>
-      <c r="R439" s="1"/>
+      <c r="R439" s="14"/>
       <c r="S439" s="1"/>
       <c r="T439" s="1"/>
       <c r="U439" s="1"/>
@@ -27883,7 +27970,7 @@
       <c r="O440" s="1"/>
       <c r="P440" s="1"/>
       <c r="Q440" s="1"/>
-      <c r="R440" s="1"/>
+      <c r="R440" s="14"/>
       <c r="S440" s="1"/>
       <c r="T440" s="1"/>
       <c r="U440" s="1"/>
@@ -27935,7 +28022,7 @@
       <c r="O441" s="1"/>
       <c r="P441" s="1"/>
       <c r="Q441" s="1"/>
-      <c r="R441" s="1"/>
+      <c r="R441" s="14"/>
       <c r="S441" s="1"/>
       <c r="T441" s="1"/>
       <c r="U441" s="1"/>
@@ -27987,7 +28074,7 @@
       <c r="O442" s="1"/>
       <c r="P442" s="1"/>
       <c r="Q442" s="1"/>
-      <c r="R442" s="1"/>
+      <c r="R442" s="14"/>
       <c r="S442" s="1"/>
       <c r="T442" s="1"/>
       <c r="U442" s="1"/>
@@ -28039,7 +28126,7 @@
       <c r="O443" s="1"/>
       <c r="P443" s="1"/>
       <c r="Q443" s="1"/>
-      <c r="R443" s="1"/>
+      <c r="R443" s="14"/>
       <c r="S443" s="1"/>
       <c r="T443" s="1"/>
       <c r="U443" s="1"/>
@@ -28091,7 +28178,7 @@
       <c r="O444" s="1"/>
       <c r="P444" s="1"/>
       <c r="Q444" s="1"/>
-      <c r="R444" s="1"/>
+      <c r="R444" s="14"/>
       <c r="S444" s="1"/>
       <c r="T444" s="1"/>
       <c r="U444" s="1"/>
@@ -28143,7 +28230,7 @@
       <c r="O445" s="1"/>
       <c r="P445" s="1"/>
       <c r="Q445" s="1"/>
-      <c r="R445" s="1"/>
+      <c r="R445" s="14"/>
       <c r="S445" s="1"/>
       <c r="T445" s="1"/>
       <c r="U445" s="1"/>
@@ -28195,7 +28282,7 @@
       <c r="O446" s="1"/>
       <c r="P446" s="1"/>
       <c r="Q446" s="1"/>
-      <c r="R446" s="1"/>
+      <c r="R446" s="14"/>
       <c r="S446" s="1"/>
       <c r="T446" s="1"/>
       <c r="U446" s="1"/>
@@ -28247,7 +28334,7 @@
       <c r="O447" s="1"/>
       <c r="P447" s="1"/>
       <c r="Q447" s="1"/>
-      <c r="R447" s="1"/>
+      <c r="R447" s="14"/>
       <c r="S447" s="1"/>
       <c r="T447" s="1"/>
       <c r="U447" s="1"/>
@@ -28299,7 +28386,7 @@
       <c r="O448" s="1"/>
       <c r="P448" s="1"/>
       <c r="Q448" s="1"/>
-      <c r="R448" s="1"/>
+      <c r="R448" s="14"/>
       <c r="S448" s="1"/>
       <c r="T448" s="1"/>
       <c r="U448" s="1"/>
@@ -28351,7 +28438,7 @@
       <c r="O449" s="1"/>
       <c r="P449" s="1"/>
       <c r="Q449" s="1"/>
-      <c r="R449" s="1"/>
+      <c r="R449" s="14"/>
       <c r="S449" s="1"/>
       <c r="T449" s="1"/>
       <c r="U449" s="1"/>
@@ -28403,7 +28490,7 @@
       <c r="O450" s="1"/>
       <c r="P450" s="1"/>
       <c r="Q450" s="1"/>
-      <c r="R450" s="1"/>
+      <c r="R450" s="14"/>
       <c r="S450" s="1"/>
       <c r="T450" s="1"/>
       <c r="U450" s="1"/>
@@ -28455,7 +28542,7 @@
       <c r="O451" s="1"/>
       <c r="P451" s="1"/>
       <c r="Q451" s="1"/>
-      <c r="R451" s="1"/>
+      <c r="R451" s="14"/>
       <c r="S451" s="1"/>
       <c r="T451" s="1"/>
       <c r="U451" s="1"/>
@@ -28507,7 +28594,7 @@
       <c r="O452" s="1"/>
       <c r="P452" s="1"/>
       <c r="Q452" s="1"/>
-      <c r="R452" s="1"/>
+      <c r="R452" s="14"/>
       <c r="S452" s="1"/>
       <c r="T452" s="1"/>
       <c r="U452" s="1"/>
@@ -28559,7 +28646,7 @@
       <c r="O453" s="1"/>
       <c r="P453" s="1"/>
       <c r="Q453" s="1"/>
-      <c r="R453" s="1"/>
+      <c r="R453" s="14"/>
       <c r="S453" s="1"/>
       <c r="T453" s="1"/>
       <c r="U453" s="1"/>
@@ -28611,7 +28698,7 @@
       <c r="O454" s="1"/>
       <c r="P454" s="1"/>
       <c r="Q454" s="1"/>
-      <c r="R454" s="1"/>
+      <c r="R454" s="14"/>
       <c r="S454" s="1"/>
       <c r="T454" s="1"/>
       <c r="U454" s="1"/>
@@ -28663,7 +28750,7 @@
       <c r="O455" s="1"/>
       <c r="P455" s="1"/>
       <c r="Q455" s="1"/>
-      <c r="R455" s="1"/>
+      <c r="R455" s="14"/>
       <c r="S455" s="1"/>
       <c r="T455" s="1"/>
       <c r="U455" s="1"/>
@@ -28715,7 +28802,7 @@
       <c r="O456" s="1"/>
       <c r="P456" s="1"/>
       <c r="Q456" s="1"/>
-      <c r="R456" s="1"/>
+      <c r="R456" s="14"/>
       <c r="S456" s="1"/>
       <c r="T456" s="1"/>
       <c r="U456" s="1"/>
@@ -28767,7 +28854,7 @@
       <c r="O457" s="1"/>
       <c r="P457" s="1"/>
       <c r="Q457" s="1"/>
-      <c r="R457" s="1"/>
+      <c r="R457" s="14"/>
       <c r="S457" s="1"/>
       <c r="T457" s="1"/>
       <c r="U457" s="1"/>
@@ -28819,7 +28906,7 @@
       <c r="O458" s="1"/>
       <c r="P458" s="1"/>
       <c r="Q458" s="1"/>
-      <c r="R458" s="1"/>
+      <c r="R458" s="14"/>
       <c r="S458" s="1"/>
       <c r="T458" s="1"/>
       <c r="U458" s="1"/>
@@ -28871,7 +28958,7 @@
       <c r="O459" s="1"/>
       <c r="P459" s="1"/>
       <c r="Q459" s="1"/>
-      <c r="R459" s="1"/>
+      <c r="R459" s="14"/>
       <c r="S459" s="1"/>
       <c r="T459" s="1"/>
       <c r="U459" s="1"/>
@@ -28923,7 +29010,7 @@
       <c r="O460" s="1"/>
       <c r="P460" s="1"/>
       <c r="Q460" s="1"/>
-      <c r="R460" s="1"/>
+      <c r="R460" s="14"/>
       <c r="S460" s="1"/>
       <c r="T460" s="1"/>
       <c r="U460" s="1"/>
@@ -28975,7 +29062,7 @@
       <c r="O461" s="1"/>
       <c r="P461" s="1"/>
       <c r="Q461" s="1"/>
-      <c r="R461" s="1"/>
+      <c r="R461" s="14"/>
       <c r="S461" s="1"/>
       <c r="T461" s="1"/>
       <c r="U461" s="1"/>
@@ -29027,7 +29114,7 @@
       <c r="O462" s="1"/>
       <c r="P462" s="1"/>
       <c r="Q462" s="1"/>
-      <c r="R462" s="1"/>
+      <c r="R462" s="14"/>
       <c r="S462" s="1"/>
       <c r="T462" s="1"/>
       <c r="U462" s="1"/>
@@ -29079,7 +29166,7 @@
       <c r="O463" s="1"/>
       <c r="P463" s="1"/>
       <c r="Q463" s="1"/>
-      <c r="R463" s="1"/>
+      <c r="R463" s="14"/>
       <c r="S463" s="1"/>
       <c r="T463" s="1"/>
       <c r="U463" s="1"/>
@@ -29131,7 +29218,7 @@
       <c r="O464" s="1"/>
       <c r="P464" s="1"/>
       <c r="Q464" s="1"/>
-      <c r="R464" s="1"/>
+      <c r="R464" s="14"/>
       <c r="S464" s="1"/>
       <c r="T464" s="1"/>
       <c r="U464" s="1"/>
@@ -29183,7 +29270,7 @@
       <c r="O465" s="1"/>
       <c r="P465" s="1"/>
       <c r="Q465" s="1"/>
-      <c r="R465" s="1"/>
+      <c r="R465" s="14"/>
       <c r="S465" s="1"/>
       <c r="T465" s="1"/>
       <c r="U465" s="1"/>
@@ -29235,7 +29322,7 @@
       <c r="O466" s="1"/>
       <c r="P466" s="1"/>
       <c r="Q466" s="1"/>
-      <c r="R466" s="1"/>
+      <c r="R466" s="14"/>
       <c r="S466" s="1"/>
       <c r="T466" s="1"/>
       <c r="U466" s="1"/>
@@ -29287,7 +29374,7 @@
       <c r="O467" s="1"/>
       <c r="P467" s="1"/>
       <c r="Q467" s="1"/>
-      <c r="R467" s="1"/>
+      <c r="R467" s="14"/>
       <c r="S467" s="1"/>
       <c r="T467" s="1"/>
       <c r="U467" s="1"/>
@@ -29339,7 +29426,7 @@
       <c r="O468" s="1"/>
       <c r="P468" s="1"/>
       <c r="Q468" s="1"/>
-      <c r="R468" s="1"/>
+      <c r="R468" s="14"/>
       <c r="S468" s="1"/>
       <c r="T468" s="1"/>
       <c r="U468" s="1"/>
@@ -29391,7 +29478,7 @@
       <c r="O469" s="1"/>
       <c r="P469" s="1"/>
       <c r="Q469" s="1"/>
-      <c r="R469" s="1"/>
+      <c r="R469" s="14"/>
       <c r="S469" s="1"/>
       <c r="T469" s="1"/>
       <c r="U469" s="1"/>
@@ -29443,7 +29530,7 @@
       <c r="O470" s="1"/>
       <c r="P470" s="1"/>
       <c r="Q470" s="1"/>
-      <c r="R470" s="1"/>
+      <c r="R470" s="14"/>
       <c r="S470" s="1"/>
       <c r="T470" s="1"/>
       <c r="U470" s="1"/>
@@ -29495,7 +29582,7 @@
       <c r="O471" s="1"/>
       <c r="P471" s="1"/>
       <c r="Q471" s="1"/>
-      <c r="R471" s="1"/>
+      <c r="R471" s="14"/>
       <c r="S471" s="1"/>
       <c r="T471" s="1"/>
       <c r="U471" s="1"/>
@@ -29547,7 +29634,7 @@
       <c r="O472" s="1"/>
       <c r="P472" s="1"/>
       <c r="Q472" s="1"/>
-      <c r="R472" s="1"/>
+      <c r="R472" s="14"/>
       <c r="S472" s="1"/>
       <c r="T472" s="1"/>
       <c r="U472" s="1"/>
@@ -29599,7 +29686,7 @@
       <c r="O473" s="1"/>
       <c r="P473" s="1"/>
       <c r="Q473" s="1"/>
-      <c r="R473" s="1"/>
+      <c r="R473" s="14"/>
       <c r="S473" s="1"/>
       <c r="T473" s="1"/>
       <c r="U473" s="1"/>
@@ -29651,7 +29738,7 @@
       <c r="O474" s="1"/>
       <c r="P474" s="1"/>
       <c r="Q474" s="1"/>
-      <c r="R474" s="1"/>
+      <c r="R474" s="14"/>
       <c r="S474" s="1"/>
       <c r="T474" s="1"/>
       <c r="U474" s="1"/>
@@ -29703,7 +29790,7 @@
       <c r="O475" s="1"/>
       <c r="P475" s="1"/>
       <c r="Q475" s="1"/>
-      <c r="R475" s="1"/>
+      <c r="R475" s="14"/>
       <c r="S475" s="1"/>
       <c r="T475" s="1"/>
       <c r="U475" s="1"/>
@@ -29755,7 +29842,7 @@
       <c r="O476" s="1"/>
       <c r="P476" s="1"/>
       <c r="Q476" s="1"/>
-      <c r="R476" s="1"/>
+      <c r="R476" s="14"/>
       <c r="S476" s="1"/>
       <c r="T476" s="1"/>
       <c r="U476" s="1"/>
@@ -29807,7 +29894,7 @@
       <c r="O477" s="1"/>
       <c r="P477" s="1"/>
       <c r="Q477" s="1"/>
-      <c r="R477" s="1"/>
+      <c r="R477" s="14"/>
       <c r="S477" s="1"/>
       <c r="T477" s="1"/>
       <c r="U477" s="1"/>
@@ -29859,7 +29946,7 @@
       <c r="O478" s="1"/>
       <c r="P478" s="1"/>
       <c r="Q478" s="1"/>
-      <c r="R478" s="1"/>
+      <c r="R478" s="14"/>
       <c r="S478" s="1"/>
       <c r="T478" s="1"/>
       <c r="U478" s="1"/>
@@ -29911,7 +29998,7 @@
       <c r="O479" s="1"/>
       <c r="P479" s="1"/>
       <c r="Q479" s="1"/>
-      <c r="R479" s="1"/>
+      <c r="R479" s="14"/>
       <c r="S479" s="1"/>
       <c r="T479" s="1"/>
       <c r="U479" s="1"/>
@@ -29963,7 +30050,7 @@
       <c r="O480" s="1"/>
       <c r="P480" s="1"/>
       <c r="Q480" s="1"/>
-      <c r="R480" s="1"/>
+      <c r="R480" s="14"/>
       <c r="S480" s="1"/>
       <c r="T480" s="1"/>
       <c r="U480" s="1"/>
@@ -30015,7 +30102,7 @@
       <c r="O481" s="1"/>
       <c r="P481" s="1"/>
       <c r="Q481" s="1"/>
-      <c r="R481" s="1"/>
+      <c r="R481" s="14"/>
       <c r="S481" s="1"/>
       <c r="T481" s="1"/>
       <c r="U481" s="1"/>
@@ -30067,7 +30154,7 @@
       <c r="O482" s="1"/>
       <c r="P482" s="1"/>
       <c r="Q482" s="1"/>
-      <c r="R482" s="1"/>
+      <c r="R482" s="14"/>
       <c r="S482" s="1"/>
       <c r="T482" s="1"/>
       <c r="U482" s="1"/>
@@ -30119,7 +30206,7 @@
       <c r="O483" s="1"/>
       <c r="P483" s="1"/>
       <c r="Q483" s="1"/>
-      <c r="R483" s="1"/>
+      <c r="R483" s="14"/>
       <c r="S483" s="1"/>
       <c r="T483" s="1"/>
       <c r="U483" s="1"/>
@@ -30171,7 +30258,7 @@
       <c r="O484" s="1"/>
       <c r="P484" s="1"/>
       <c r="Q484" s="1"/>
-      <c r="R484" s="1"/>
+      <c r="R484" s="14"/>
       <c r="S484" s="1"/>
       <c r="T484" s="1"/>
       <c r="U484" s="1"/>
@@ -30223,7 +30310,7 @@
       <c r="O485" s="1"/>
       <c r="P485" s="1"/>
       <c r="Q485" s="1"/>
-      <c r="R485" s="1"/>
+      <c r="R485" s="14"/>
       <c r="S485" s="1"/>
       <c r="T485" s="1"/>
       <c r="U485" s="1"/>
@@ -30275,7 +30362,7 @@
       <c r="O486" s="1"/>
       <c r="P486" s="1"/>
       <c r="Q486" s="1"/>
-      <c r="R486" s="1"/>
+      <c r="R486" s="14"/>
       <c r="S486" s="1"/>
       <c r="T486" s="1"/>
       <c r="U486" s="1"/>
@@ -30327,7 +30414,7 @@
       <c r="O487" s="1"/>
       <c r="P487" s="1"/>
       <c r="Q487" s="1"/>
-      <c r="R487" s="1"/>
+      <c r="R487" s="14"/>
       <c r="S487" s="1"/>
       <c r="T487" s="1"/>
       <c r="U487" s="1"/>
@@ -30379,7 +30466,7 @@
       <c r="O488" s="1"/>
       <c r="P488" s="1"/>
       <c r="Q488" s="1"/>
-      <c r="R488" s="1"/>
+      <c r="R488" s="14"/>
       <c r="S488" s="1"/>
       <c r="T488" s="1"/>
       <c r="U488" s="1"/>
@@ -30431,7 +30518,7 @@
       <c r="O489" s="1"/>
       <c r="P489" s="1"/>
       <c r="Q489" s="1"/>
-      <c r="R489" s="1"/>
+      <c r="R489" s="14"/>
       <c r="S489" s="1"/>
       <c r="T489" s="1"/>
       <c r="U489" s="1"/>
@@ -30483,7 +30570,7 @@
       <c r="O490" s="1"/>
       <c r="P490" s="1"/>
       <c r="Q490" s="1"/>
-      <c r="R490" s="1"/>
+      <c r="R490" s="14"/>
       <c r="S490" s="1"/>
       <c r="T490" s="1"/>
       <c r="U490" s="1"/>
@@ -30535,7 +30622,7 @@
       <c r="O491" s="1"/>
       <c r="P491" s="1"/>
       <c r="Q491" s="1"/>
-      <c r="R491" s="1"/>
+      <c r="R491" s="14"/>
       <c r="S491" s="1"/>
       <c r="T491" s="1"/>
       <c r="U491" s="1"/>
@@ -30587,7 +30674,7 @@
       <c r="O492" s="1"/>
       <c r="P492" s="1"/>
       <c r="Q492" s="1"/>
-      <c r="R492" s="1"/>
+      <c r="R492" s="14"/>
       <c r="S492" s="1"/>
       <c r="T492" s="1"/>
       <c r="U492" s="1"/>
@@ -30639,7 +30726,7 @@
       <c r="O493" s="1"/>
       <c r="P493" s="1"/>
       <c r="Q493" s="1"/>
-      <c r="R493" s="1"/>
+      <c r="R493" s="14"/>
       <c r="S493" s="1"/>
       <c r="T493" s="1"/>
       <c r="U493" s="1"/>
@@ -30691,7 +30778,7 @@
       <c r="O494" s="1"/>
       <c r="P494" s="1"/>
       <c r="Q494" s="1"/>
-      <c r="R494" s="1"/>
+      <c r="R494" s="14"/>
       <c r="S494" s="1"/>
       <c r="T494" s="1"/>
       <c r="U494" s="1"/>
@@ -30743,7 +30830,7 @@
       <c r="O495" s="1"/>
       <c r="P495" s="1"/>
       <c r="Q495" s="1"/>
-      <c r="R495" s="1"/>
+      <c r="R495" s="14"/>
       <c r="S495" s="1"/>
       <c r="T495" s="1"/>
       <c r="U495" s="1"/>
@@ -30795,7 +30882,7 @@
       <c r="O496" s="1"/>
       <c r="P496" s="1"/>
       <c r="Q496" s="1"/>
-      <c r="R496" s="1"/>
+      <c r="R496" s="14"/>
       <c r="S496" s="1"/>
       <c r="T496" s="1"/>
       <c r="U496" s="1"/>
@@ -30847,7 +30934,7 @@
       <c r="O497" s="1"/>
       <c r="P497" s="1"/>
       <c r="Q497" s="1"/>
-      <c r="R497" s="1"/>
+      <c r="R497" s="14"/>
       <c r="S497" s="1"/>
       <c r="T497" s="1"/>
       <c r="U497" s="1"/>
@@ -30899,7 +30986,7 @@
       <c r="O498" s="1"/>
       <c r="P498" s="1"/>
       <c r="Q498" s="1"/>
-      <c r="R498" s="1"/>
+      <c r="R498" s="14"/>
       <c r="S498" s="1"/>
       <c r="T498" s="1"/>
       <c r="U498" s="1"/>
@@ -30951,7 +31038,7 @@
       <c r="O499" s="1"/>
       <c r="P499" s="1"/>
       <c r="Q499" s="1"/>
-      <c r="R499" s="1"/>
+      <c r="R499" s="14"/>
       <c r="S499" s="1"/>
       <c r="T499" s="1"/>
       <c r="U499" s="1"/>
